--- a/data/nzd0094/nzd0094.xlsx
+++ b/data/nzd0094/nzd0094.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD236"/>
+  <dimension ref="A1:AD239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20868,6 +20868,292 @@
         </is>
       </c>
     </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>322.65</v>
+      </c>
+      <c r="C237" t="n">
+        <v>322.04</v>
+      </c>
+      <c r="D237" t="n">
+        <v>391.1028571428572</v>
+      </c>
+      <c r="E237" t="n">
+        <v>393.6328571428572</v>
+      </c>
+      <c r="F237" t="n">
+        <v>371.93</v>
+      </c>
+      <c r="G237" t="n">
+        <v>367.36</v>
+      </c>
+      <c r="H237" t="n">
+        <v>358.78</v>
+      </c>
+      <c r="I237" t="n">
+        <v>367.37</v>
+      </c>
+      <c r="J237" t="n">
+        <v>356.8628571428572</v>
+      </c>
+      <c r="K237" t="n">
+        <v>357.6528571428572</v>
+      </c>
+      <c r="L237" t="n">
+        <v>368.3428571428572</v>
+      </c>
+      <c r="M237" t="n">
+        <v>374.6328571428572</v>
+      </c>
+      <c r="N237" t="n">
+        <v>381.2328571428571</v>
+      </c>
+      <c r="O237" t="n">
+        <v>376.28</v>
+      </c>
+      <c r="P237" t="n">
+        <v>374.2928571428571</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>374.9228571428571</v>
+      </c>
+      <c r="R237" t="n">
+        <v>374.49</v>
+      </c>
+      <c r="S237" t="n">
+        <v>377.3228571428572</v>
+      </c>
+      <c r="T237" t="n">
+        <v>382.17</v>
+      </c>
+      <c r="U237" t="n">
+        <v>387.65</v>
+      </c>
+      <c r="V237" t="n">
+        <v>384.88</v>
+      </c>
+      <c r="W237" t="n">
+        <v>384.0366666666667</v>
+      </c>
+      <c r="X237" t="n">
+        <v>382.2866666666667</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>380.11</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>378.0128571428572</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>366.4663636363636</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>370.09</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>372.3376923076923</v>
+      </c>
+      <c r="AD237" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>341.6566666666667</v>
+      </c>
+      <c r="C238" t="n">
+        <v>337.4633333333333</v>
+      </c>
+      <c r="D238" t="n">
+        <v>376.1985714285714</v>
+      </c>
+      <c r="E238" t="n">
+        <v>378.1085714285715</v>
+      </c>
+      <c r="F238" t="n">
+        <v>374.86</v>
+      </c>
+      <c r="G238" t="n">
+        <v>366.2333333333333</v>
+      </c>
+      <c r="H238" t="n">
+        <v>361.8633333333333</v>
+      </c>
+      <c r="I238" t="n">
+        <v>371.3033333333333</v>
+      </c>
+      <c r="J238" t="n">
+        <v>367.4385714285714</v>
+      </c>
+      <c r="K238" t="n">
+        <v>370.1285714285714</v>
+      </c>
+      <c r="L238" t="n">
+        <v>377.4785714285715</v>
+      </c>
+      <c r="M238" t="n">
+        <v>383.3085714285714</v>
+      </c>
+      <c r="N238" t="n">
+        <v>390.8085714285714</v>
+      </c>
+      <c r="O238" t="n">
+        <v>382.61</v>
+      </c>
+      <c r="P238" t="n">
+        <v>385.5885714285714</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>379.6585714285715</v>
+      </c>
+      <c r="R238" t="n">
+        <v>382.79</v>
+      </c>
+      <c r="S238" t="n">
+        <v>386.0785714285714</v>
+      </c>
+      <c r="T238" t="n">
+        <v>388.72</v>
+      </c>
+      <c r="U238" t="n">
+        <v>390.02</v>
+      </c>
+      <c r="V238" t="n">
+        <v>392.63</v>
+      </c>
+      <c r="W238" t="n">
+        <v>388.4988888888889</v>
+      </c>
+      <c r="X238" t="n">
+        <v>392.8488888888889</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>383.98</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>388.7785714285715</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>374.2927272727272</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>370.8766666666667</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>374.5838461538461</v>
+      </c>
+      <c r="AD238" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>371.2466666666666</v>
+      </c>
+      <c r="C239" t="n">
+        <v>365.0333333333333</v>
+      </c>
+      <c r="D239" t="n">
+        <v>402.9871428571428</v>
+      </c>
+      <c r="E239" t="n">
+        <v>400.0271428571429</v>
+      </c>
+      <c r="F239" t="n">
+        <v>378.41</v>
+      </c>
+      <c r="G239" t="n">
+        <v>370.4233333333333</v>
+      </c>
+      <c r="H239" t="n">
+        <v>365.8133333333333</v>
+      </c>
+      <c r="I239" t="n">
+        <v>374.7333333333333</v>
+      </c>
+      <c r="J239" t="n">
+        <v>379.6571428571429</v>
+      </c>
+      <c r="K239" t="n">
+        <v>384.5671428571428</v>
+      </c>
+      <c r="L239" t="n">
+        <v>390.3071428571428</v>
+      </c>
+      <c r="M239" t="n">
+        <v>404.9571428571429</v>
+      </c>
+      <c r="N239" t="n">
+        <v>406.1571428571429</v>
+      </c>
+      <c r="O239" t="n">
+        <v>404.04</v>
+      </c>
+      <c r="P239" t="n">
+        <v>401.6971428571428</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>402.0871428571429</v>
+      </c>
+      <c r="R239" t="n">
+        <v>399.42</v>
+      </c>
+      <c r="S239" t="n">
+        <v>407.3371428571429</v>
+      </c>
+      <c r="T239" t="n">
+        <v>405.64</v>
+      </c>
+      <c r="U239" t="n">
+        <v>415.97</v>
+      </c>
+      <c r="V239" t="n">
+        <v>407.01</v>
+      </c>
+      <c r="W239" t="n">
+        <v>407.7188888888889</v>
+      </c>
+      <c r="X239" t="n">
+        <v>406.9388888888889</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>392.21</v>
+      </c>
+      <c r="Z239" t="inlineStr"/>
+      <c r="AA239" t="n">
+        <v>378.9318181818182</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>376.2866666666667</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>388.2369230769231</v>
+      </c>
+      <c r="AD239" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20879,7 +21165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B238"/>
+  <dimension ref="A1:B241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23267,6 +23553,36 @@
       </c>
       <c r="B238" t="n">
         <v>1.07</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>-0.32</v>
       </c>
     </row>
   </sheetData>
@@ -23435,28 +23751,28 @@
         <v>0.0165</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9150696326603213</v>
+        <v>0.7942465405773529</v>
       </c>
       <c r="J2" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K2" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02379091102712771</v>
+        <v>0.01843946723311607</v>
       </c>
       <c r="M2" t="n">
-        <v>27.74965551467322</v>
+        <v>27.61942429110892</v>
       </c>
       <c r="N2" t="n">
-        <v>1527.119580244553</v>
+        <v>1516.028434663588</v>
       </c>
       <c r="O2" t="n">
-        <v>39.0783774003547</v>
+        <v>38.93620981379143</v>
       </c>
       <c r="P2" t="n">
-        <v>348.7536835015335</v>
+        <v>350.143351984393</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -23512,28 +23828,28 @@
         <v>0.0438</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3172182654114666</v>
+        <v>0.1965618505785209</v>
       </c>
       <c r="J3" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K3" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005791720464619843</v>
+        <v>0.002242712441485106</v>
       </c>
       <c r="M3" t="n">
-        <v>20.90419128438515</v>
+        <v>21.03519634099588</v>
       </c>
       <c r="N3" t="n">
-        <v>782.3489159830392</v>
+        <v>790.7014681751675</v>
       </c>
       <c r="O3" t="n">
-        <v>27.97050081752272</v>
+        <v>28.11941443514014</v>
       </c>
       <c r="P3" t="n">
-        <v>363.7913933057297</v>
+        <v>365.1514624991598</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -23589,28 +23905,28 @@
         <v>0.0513</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4743719627853312</v>
+        <v>0.5478061328239583</v>
       </c>
       <c r="J4" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K4" t="n">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02079027147124324</v>
+        <v>0.0280048966675378</v>
       </c>
       <c r="M4" t="n">
-        <v>18.26343941028271</v>
+        <v>18.28539705427234</v>
       </c>
       <c r="N4" t="n">
-        <v>459.8802117543809</v>
+        <v>459.6418639343617</v>
       </c>
       <c r="O4" t="n">
-        <v>21.44481782982502</v>
+        <v>21.43925987375408</v>
       </c>
       <c r="P4" t="n">
-        <v>359.4690877335464</v>
+        <v>358.6283697184877</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -23666,28 +23982,28 @@
         <v>0.0419</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5772414304243993</v>
+        <v>0.6694992976230066</v>
       </c>
       <c r="J5" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K5" t="n">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02686167124706607</v>
+        <v>0.03628919236271955</v>
       </c>
       <c r="M5" t="n">
-        <v>17.61890538614858</v>
+        <v>17.83230198607822</v>
       </c>
       <c r="N5" t="n">
-        <v>497.4684999759826</v>
+        <v>499.7062505007279</v>
       </c>
       <c r="O5" t="n">
-        <v>22.30400188253181</v>
+        <v>22.35411037148936</v>
       </c>
       <c r="P5" t="n">
-        <v>352.1367470092894</v>
+        <v>351.0659871663159</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -23743,28 +24059,28 @@
         <v>0.0259</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2089255191237563</v>
+        <v>0.2506375514343862</v>
       </c>
       <c r="J6" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K6" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00513963576970855</v>
+        <v>0.007567587049598146</v>
       </c>
       <c r="M6" t="n">
-        <v>14.9349094101609</v>
+        <v>14.9107684659463</v>
       </c>
       <c r="N6" t="n">
-        <v>354.7880137635109</v>
+        <v>351.8202774317923</v>
       </c>
       <c r="O6" t="n">
-        <v>18.83581731073836</v>
+        <v>18.75687280523575</v>
       </c>
       <c r="P6" t="n">
-        <v>357.1961436241371</v>
+        <v>356.7210603236477</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -23820,28 +24136,28 @@
         <v>0.032</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1045211183306371</v>
+        <v>0.1392056365650578</v>
       </c>
       <c r="J7" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K7" t="n">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001705906133697921</v>
+        <v>0.003104159965133024</v>
       </c>
       <c r="M7" t="n">
-        <v>13.24265585285134</v>
+        <v>13.19480437254292</v>
       </c>
       <c r="N7" t="n">
-        <v>273.0741299946824</v>
+        <v>270.6084346443653</v>
       </c>
       <c r="O7" t="n">
-        <v>16.524954765284</v>
+        <v>16.45018038333821</v>
       </c>
       <c r="P7" t="n">
-        <v>354.8762386401827</v>
+        <v>354.4887192503772</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -23897,28 +24213,28 @@
         <v>0.032</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09143740440410641</v>
+        <v>0.1095408133997392</v>
       </c>
       <c r="J8" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K8" t="n">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001586927474751865</v>
+        <v>0.002344835185202787</v>
       </c>
       <c r="M8" t="n">
-        <v>12.2446286344158</v>
+        <v>12.12541921851102</v>
       </c>
       <c r="N8" t="n">
-        <v>223.9786800870111</v>
+        <v>221.1882528747923</v>
       </c>
       <c r="O8" t="n">
-        <v>14.96591728184447</v>
+        <v>14.87239902889888</v>
       </c>
       <c r="P8" t="n">
-        <v>354.3454258695409</v>
+        <v>354.1418417199149</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -23974,28 +24290,28 @@
         <v>0.0357</v>
       </c>
       <c r="I9" t="n">
-        <v>0.175827731613475</v>
+        <v>0.2169816590082234</v>
       </c>
       <c r="J9" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K9" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L9" t="n">
-        <v>0.007415558916269882</v>
+        <v>0.01144229751960024</v>
       </c>
       <c r="M9" t="n">
-        <v>10.3548345762324</v>
+        <v>10.37383892947476</v>
       </c>
       <c r="N9" t="n">
-        <v>176.7293671655104</v>
+        <v>176.6174988817384</v>
       </c>
       <c r="O9" t="n">
-        <v>13.29395980005621</v>
+        <v>13.28975164861023</v>
       </c>
       <c r="P9" t="n">
-        <v>353.741106719975</v>
+        <v>353.2783034685489</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -24051,28 +24367,28 @@
         <v>0.0377</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2270140945515</v>
+        <v>0.2498536527066329</v>
       </c>
       <c r="J10" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K10" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01461926271056757</v>
+        <v>0.01794761017212221</v>
       </c>
       <c r="M10" t="n">
-        <v>9.702663968048817</v>
+        <v>9.698957979000056</v>
       </c>
       <c r="N10" t="n">
-        <v>152.6088170124466</v>
+        <v>152.4167084663474</v>
       </c>
       <c r="O10" t="n">
-        <v>12.35349412160165</v>
+        <v>12.34571619900391</v>
       </c>
       <c r="P10" t="n">
-        <v>354.8168908001489</v>
+        <v>354.5623665860532</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -24128,28 +24444,28 @@
         <v>0.0404</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2815714753474706</v>
+        <v>0.3005147777509819</v>
       </c>
       <c r="J11" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K11" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02250905093114197</v>
+        <v>0.025954906963917</v>
       </c>
       <c r="M11" t="n">
-        <v>9.486146912052929</v>
+        <v>9.506797092485693</v>
       </c>
       <c r="N11" t="n">
-        <v>149.660033712667</v>
+        <v>149.7340482281491</v>
       </c>
       <c r="O11" t="n">
-        <v>12.23356177540568</v>
+        <v>12.23658646143397</v>
       </c>
       <c r="P11" t="n">
-        <v>357.6803608006286</v>
+        <v>357.4684332199335</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -24205,28 +24521,28 @@
         <v>0.0403</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2324857910811176</v>
+        <v>0.260586878894593</v>
       </c>
       <c r="J12" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K12" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01799356986743417</v>
+        <v>0.0227847117361516</v>
       </c>
       <c r="M12" t="n">
-        <v>8.840189062515027</v>
+        <v>8.853849868856859</v>
       </c>
       <c r="N12" t="n">
-        <v>126.9642600336738</v>
+        <v>127.3896861016228</v>
       </c>
       <c r="O12" t="n">
-        <v>11.26784185341957</v>
+        <v>11.28670395206779</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9510682762837</v>
+        <v>363.6348705524551</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -24282,28 +24598,28 @@
         <v>0.037</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1950815763622271</v>
+        <v>0.2270981808727592</v>
       </c>
       <c r="J13" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K13" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01302200944264731</v>
+        <v>0.01757960639749534</v>
       </c>
       <c r="M13" t="n">
-        <v>9.069249397205942</v>
+        <v>9.105996994488882</v>
       </c>
       <c r="N13" t="n">
-        <v>123.5018320245882</v>
+        <v>125.4609173859458</v>
       </c>
       <c r="O13" t="n">
-        <v>11.11313781182382</v>
+        <v>11.20093377294705</v>
       </c>
       <c r="P13" t="n">
-        <v>372.6867003398356</v>
+        <v>372.3263563291326</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -24359,28 +24675,28 @@
         <v>0.0357</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07568111061905977</v>
+        <v>0.09866389079999908</v>
       </c>
       <c r="J14" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K14" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002131474491313567</v>
+        <v>0.003653943395201531</v>
       </c>
       <c r="M14" t="n">
-        <v>8.640996190693423</v>
+        <v>8.654784765192025</v>
       </c>
       <c r="N14" t="n">
-        <v>115.451643017447</v>
+        <v>116.0630764147458</v>
       </c>
       <c r="O14" t="n">
-        <v>10.74484262413587</v>
+        <v>10.77325746535122</v>
       </c>
       <c r="P14" t="n">
-        <v>383.3636171322335</v>
+        <v>383.1042842659549</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -24436,28 +24752,28 @@
         <v>0.0408</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03865365922393472</v>
+        <v>0.06503539771667957</v>
       </c>
       <c r="J15" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K15" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0005315225300692727</v>
+        <v>0.001510997395680502</v>
       </c>
       <c r="M15" t="n">
-        <v>8.755738346043545</v>
+        <v>8.777951677549771</v>
       </c>
       <c r="N15" t="n">
-        <v>119.5777327689196</v>
+        <v>120.851103056009</v>
       </c>
       <c r="O15" t="n">
-        <v>10.93516039063532</v>
+        <v>10.99322987369995</v>
       </c>
       <c r="P15" t="n">
-        <v>378.4095244890491</v>
+        <v>378.1093971071408</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -24513,28 +24829,28 @@
         <v>0.0364</v>
       </c>
       <c r="I16" t="n">
-        <v>0.007518463249691128</v>
+        <v>0.03499277829111318</v>
       </c>
       <c r="J16" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K16" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L16" t="n">
-        <v>1.782994403776161e-05</v>
+        <v>0.0003890170904375934</v>
       </c>
       <c r="M16" t="n">
-        <v>9.317127037228579</v>
+        <v>9.336838231854307</v>
       </c>
       <c r="N16" t="n">
-        <v>134.4417413283821</v>
+        <v>135.4026870726762</v>
       </c>
       <c r="O16" t="n">
-        <v>11.59490152301356</v>
+        <v>11.63626602792649</v>
       </c>
       <c r="P16" t="n">
-        <v>378.2082856096536</v>
+        <v>377.8928451162809</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -24590,28 +24906,28 @@
         <v>0.0407</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.02196814363061505</v>
+        <v>0.006070804042092303</v>
       </c>
       <c r="J17" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K17" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001588116283549601</v>
+        <v>1.218405149450152e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>9.271089434943331</v>
+        <v>9.28542256877941</v>
       </c>
       <c r="N17" t="n">
-        <v>132.5298466836124</v>
+        <v>133.8210479522087</v>
       </c>
       <c r="O17" t="n">
-        <v>11.51216081731021</v>
+        <v>11.56810476924412</v>
       </c>
       <c r="P17" t="n">
-        <v>376.9245387796466</v>
+        <v>376.6070365554627</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -24667,28 +24983,28 @@
         <v>0.041</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05414681630189304</v>
+        <v>0.07863388737181315</v>
       </c>
       <c r="J18" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K18" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001012939287606707</v>
+        <v>0.00215598118995497</v>
       </c>
       <c r="M18" t="n">
-        <v>9.000748081444735</v>
+        <v>8.996826461747984</v>
       </c>
       <c r="N18" t="n">
-        <v>126.859144986367</v>
+        <v>127.4523389194146</v>
       </c>
       <c r="O18" t="n">
-        <v>11.26317650515906</v>
+        <v>11.28947912524819</v>
       </c>
       <c r="P18" t="n">
-        <v>376.2616399763851</v>
+        <v>375.9869891775153</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -24744,28 +25060,28 @@
         <v>0.0406</v>
       </c>
       <c r="I19" t="n">
-        <v>0.08341950757744095</v>
+        <v>0.1077950366740123</v>
       </c>
       <c r="J19" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K19" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001986566680668989</v>
+        <v>0.003345239346851159</v>
       </c>
       <c r="M19" t="n">
-        <v>9.889778774563062</v>
+        <v>9.896131894054694</v>
       </c>
       <c r="N19" t="n">
-        <v>150.9258714434962</v>
+        <v>151.868660734397</v>
       </c>
       <c r="O19" t="n">
-        <v>12.28518910898388</v>
+        <v>12.3235003442365</v>
       </c>
       <c r="P19" t="n">
-        <v>380.3527657426588</v>
+        <v>380.0790712914464</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -24821,28 +25137,28 @@
         <v>0.0415</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1018965236317215</v>
+        <v>0.1176855227227962</v>
       </c>
       <c r="J20" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K20" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L20" t="n">
-        <v>0.003676917492289045</v>
+        <v>0.004974505092397385</v>
       </c>
       <c r="M20" t="n">
-        <v>8.488213157266008</v>
+        <v>8.491612330285712</v>
       </c>
       <c r="N20" t="n">
-        <v>118.8451632884352</v>
+        <v>118.8905511994456</v>
       </c>
       <c r="O20" t="n">
-        <v>10.90161287555356</v>
+        <v>10.90369438307244</v>
       </c>
       <c r="P20" t="n">
-        <v>384.5501522705157</v>
+        <v>384.3703849007457</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -24898,28 +25214,28 @@
         <v>0.0411</v>
       </c>
       <c r="I21" t="n">
-        <v>0.191659599118131</v>
+        <v>0.2049120883648324</v>
       </c>
       <c r="J21" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K21" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01307957262348092</v>
+        <v>0.01503359706890439</v>
       </c>
       <c r="M21" t="n">
-        <v>8.407309770603508</v>
+        <v>8.436014806225023</v>
       </c>
       <c r="N21" t="n">
-        <v>117.760045057274</v>
+        <v>118.6566956833178</v>
       </c>
       <c r="O21" t="n">
-        <v>10.85173004904167</v>
+        <v>10.89296542192794</v>
       </c>
       <c r="P21" t="n">
-        <v>388.664482702399</v>
+        <v>388.5135360938659</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -24975,28 +25291,28 @@
         <v>0.0445</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1140687444712489</v>
+        <v>0.1260220328473426</v>
       </c>
       <c r="J22" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K22" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L22" t="n">
-        <v>0.005225977591408415</v>
+        <v>0.00647566435727176</v>
       </c>
       <c r="M22" t="n">
-        <v>8.276431978978714</v>
+        <v>8.27064829263286</v>
       </c>
       <c r="N22" t="n">
-        <v>108.8400837337683</v>
+        <v>108.7062149548874</v>
       </c>
       <c r="O22" t="n">
-        <v>10.43264509766187</v>
+        <v>10.42622726372715</v>
       </c>
       <c r="P22" t="n">
-        <v>387.9639508002427</v>
+        <v>387.8306363961487</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -25052,28 +25368,28 @@
         <v>0.047</v>
       </c>
       <c r="I23" t="n">
-        <v>0.09420757023803659</v>
+        <v>0.1069460354247053</v>
       </c>
       <c r="J23" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K23" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L23" t="n">
-        <v>0.003762458171940875</v>
+        <v>0.00490523153808442</v>
       </c>
       <c r="M23" t="n">
-        <v>7.994332973127215</v>
+        <v>7.992568761992656</v>
       </c>
       <c r="N23" t="n">
-        <v>103.5694739199435</v>
+        <v>103.834003494502</v>
       </c>
       <c r="O23" t="n">
-        <v>10.17690885878141</v>
+        <v>10.18989712874973</v>
       </c>
       <c r="P23" t="n">
-        <v>386.8578733821524</v>
+        <v>386.7158798870438</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -25129,28 +25445,28 @@
         <v>0.0484</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1137716386415341</v>
+        <v>0.130622409066937</v>
       </c>
       <c r="J24" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K24" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L24" t="n">
-        <v>0.005055046260476259</v>
+        <v>0.006745798361260547</v>
       </c>
       <c r="M24" t="n">
-        <v>8.355091351494753</v>
+        <v>8.362968812910424</v>
       </c>
       <c r="N24" t="n">
-        <v>110.7328662106573</v>
+        <v>110.9964019400716</v>
       </c>
       <c r="O24" t="n">
-        <v>10.52296850753899</v>
+        <v>10.53548299510144</v>
       </c>
       <c r="P24" t="n">
-        <v>385.8232424113777</v>
+        <v>385.6350036919629</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -25206,28 +25522,28 @@
         <v>0.0518</v>
       </c>
       <c r="I25" t="n">
-        <v>0.12860019472937</v>
+        <v>0.1414285652542378</v>
       </c>
       <c r="J25" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K25" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L25" t="n">
-        <v>0.008420279215413995</v>
+        <v>0.01041761642198347</v>
       </c>
       <c r="M25" t="n">
-        <v>7.14010551816395</v>
+        <v>7.09865305879377</v>
       </c>
       <c r="N25" t="n">
-        <v>84.65762884960597</v>
+        <v>84.00885979574414</v>
       </c>
       <c r="O25" t="n">
-        <v>9.200958039769878</v>
+        <v>9.165634718651194</v>
       </c>
       <c r="P25" t="n">
-        <v>378.1942160734471</v>
+        <v>378.0515455446073</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -25283,28 +25599,28 @@
         <v>0.0363</v>
       </c>
       <c r="I26" t="n">
-        <v>0.06949344051962372</v>
+        <v>0.06181496438584148</v>
       </c>
       <c r="J26" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K26" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001745008008304128</v>
+        <v>0.001406330537353839</v>
       </c>
       <c r="M26" t="n">
-        <v>8.226434985463074</v>
+        <v>8.200946318482716</v>
       </c>
       <c r="N26" t="n">
-        <v>118.3036323570335</v>
+        <v>117.4912641291713</v>
       </c>
       <c r="O26" t="n">
-        <v>10.87674732431684</v>
+        <v>10.83933873117596</v>
       </c>
       <c r="P26" t="n">
-        <v>385.0642448868658</v>
+        <v>385.1507429060496</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -25360,28 +25676,28 @@
         <v>0.0617</v>
       </c>
       <c r="I27" t="n">
-        <v>0.07072416676512421</v>
+        <v>0.07997368867513847</v>
       </c>
       <c r="J27" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K27" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L27" t="n">
-        <v>0.002923499928009554</v>
+        <v>0.003824991904513686</v>
       </c>
       <c r="M27" t="n">
-        <v>6.513831678487077</v>
+        <v>6.49447202301748</v>
       </c>
       <c r="N27" t="n">
-        <v>74.51688207566859</v>
+        <v>73.93270257226557</v>
       </c>
       <c r="O27" t="n">
-        <v>8.63231614780579</v>
+        <v>8.598412793781511</v>
       </c>
       <c r="P27" t="n">
-        <v>368.5148473431661</v>
+        <v>368.4114178108347</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -25437,28 +25753,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>0.05619561573880117</v>
+        <v>0.07572688714518019</v>
       </c>
       <c r="J28" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K28" t="n">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L28" t="n">
-        <v>0.001716177758425474</v>
+        <v>0.003191131792680046</v>
       </c>
       <c r="M28" t="n">
-        <v>6.505585803796765</v>
+        <v>6.48048150738941</v>
       </c>
       <c r="N28" t="n">
-        <v>79.45498078489</v>
+        <v>78.84787639314308</v>
       </c>
       <c r="O28" t="n">
-        <v>8.913752340338496</v>
+        <v>8.879632672196699</v>
       </c>
       <c r="P28" t="n">
-        <v>365.1612544590664</v>
+        <v>364.9432486137844</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -25514,28 +25830,28 @@
         <v>0.0766</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.04666895070304952</v>
+        <v>-0.02595504312112152</v>
       </c>
       <c r="J29" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K29" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L29" t="n">
-        <v>0.001433315922428013</v>
+        <v>0.0004479177100094045</v>
       </c>
       <c r="M29" t="n">
-        <v>6.189343471641123</v>
+        <v>6.178511335695552</v>
       </c>
       <c r="N29" t="n">
-        <v>65.44994542924466</v>
+        <v>65.81303924619588</v>
       </c>
       <c r="O29" t="n">
-        <v>8.090114055391597</v>
+        <v>8.112523605278193</v>
       </c>
       <c r="P29" t="n">
-        <v>373.1040559337891</v>
+        <v>372.8680527891673</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -25572,7 +25888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD236"/>
+  <dimension ref="A1:AD239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56892,6 +57208,458 @@
         </is>
       </c>
     </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>-35.631770391577895,174.51456697836747</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>-35.63241910840161,174.51415457284423</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>-35.6333459772796,174.5144319242098</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>-35.63403394104606,174.51403367968584</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>-35.63450102078618,174.51326046631127</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>-35.635003438087736,174.51260052281023</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>-35.63547837648821,174.51191062428424</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>-35.6360588953467,174.5113592884113</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>-35.63652621677638,174.5106582910816</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>-35.637063907018685,174.5100505480524</t>
+        </is>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>-35.63766186423307,174.50952345026766</t>
+        </is>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>-35.638230897081066,174.5089624489173</t>
+        </is>
+      </c>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>-35.638804920760194,174.50845294419327</t>
+        </is>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>-35.63941085655484,174.5079880775569</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>-35.64004504996242,174.50754215726906</t>
+        </is>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>-35.64069159880525,174.50712109182763</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>-35.64132508384476,174.5066682969499</t>
+        </is>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>-35.64196376590877,174.5062294433379</t>
+        </is>
+      </c>
+      <c r="T237" t="inlineStr">
+        <is>
+          <t>-35.64261054514613,174.50581039067637</t>
+        </is>
+      </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>-35.64325173551218,174.50540263152877</t>
+        </is>
+      </c>
+      <c r="V237" t="inlineStr">
+        <is>
+          <t>-35.64388340653475,174.50498219499627</t>
+        </is>
+      </c>
+      <c r="W237" t="inlineStr">
+        <is>
+          <t>-35.64453936562922,174.50459420586103</t>
+        </is>
+      </c>
+      <c r="X237" t="inlineStr">
+        <is>
+          <t>-35.6451851845296,174.50420000988515</t>
+        </is>
+      </c>
+      <c r="Y237" t="inlineStr">
+        <is>
+          <t>-35.645858778553844,174.50388887562093</t>
+        </is>
+      </c>
+      <c r="Z237" t="inlineStr">
+        <is>
+          <t>-35.64654531775332,174.50358570931897</t>
+        </is>
+      </c>
+      <c r="AA237" t="inlineStr">
+        <is>
+          <t>-35.64720698535326,174.50318278618482</t>
+        </is>
+      </c>
+      <c r="AB237" t="inlineStr">
+        <is>
+          <t>-35.647906061234174,174.5029403239128</t>
+        </is>
+      </c>
+      <c r="AC237" t="inlineStr">
+        <is>
+          <t>-35.648617615946044,174.50278910889705</t>
+        </is>
+      </c>
+      <c r="AD237" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>-35.63184627216971,174.51475514011577</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>-35.63248068354455,174.51430726142718</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>-35.63328647472177,174.51428437231104</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>-35.63395892034127,174.513888973476</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>-35.63451829844145,174.51328493710363</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>-35.63499649972643,174.51259143769624</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>-35.63549736470104,174.51193548744357</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>-35.63608301884208,174.5113911193414</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>-35.63659072476577,174.51074427710694</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>-35.63713990309385,174.51015209658115</t>
+        </is>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>-35.63771751482317,174.50959781255236</t>
+        </is>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>-35.63828236761731,174.50903457854145</t>
+        </is>
+      </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>-35.63885287864018,174.5085408640842</t>
+        </is>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>-35.63943741480962,174.5080499455206</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>-35.64009244268682,174.50765255973238</t>
+        </is>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>-35.640711968634314,174.50716705065855</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>-35.64136240199914,174.5067477392236</t>
+        </is>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>-35.64200391482158,174.50631268961794</t>
+        </is>
+      </c>
+      <c r="T238" t="inlineStr">
+        <is>
+          <t>-35.64264057999042,174.5058726662066</t>
+        </is>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>-35.643261824783096,174.50542570177188</t>
+        </is>
+      </c>
+      <c r="V238" t="inlineStr">
+        <is>
+          <t>-35.64391306755702,174.5050596845899</t>
+        </is>
+      </c>
+      <c r="W238" t="inlineStr">
+        <is>
+          <t>-35.644556023626464,174.50463906011197</t>
+        </is>
+      </c>
+      <c r="X238" t="inlineStr">
+        <is>
+          <t>-35.645219970487005,174.5043085909982</t>
+        </is>
+      </c>
+      <c r="Y238" t="inlineStr">
+        <is>
+          <t>-35.64586957467028,174.50392951656116</t>
+        </is>
+      </c>
+      <c r="Z238" t="inlineStr">
+        <is>
+          <t>-35.646574762775494,174.5036989987544</t>
+        </is>
+      </c>
+      <c r="AA238" t="inlineStr">
+        <is>
+          <t>-35.64722839124205,174.5032651449404</t>
+        </is>
+      </c>
+      <c r="AB238" t="inlineStr">
+        <is>
+          <t>-35.64790780479083,174.50294874513338</t>
+        </is>
+      </c>
+      <c r="AC238" t="inlineStr">
+        <is>
+          <t>-35.648621405116195,174.50281347730566</t>
+        </is>
+      </c>
+      <c r="AD238" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>-35.6319644041527,174.51504807518845</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>-35.632590751774906,174.51458020067693</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>-35.633393422921536,174.51454957836907</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>-35.63406484121182,174.51409328268923</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>-35.634539232112274,174.51331458602996</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>-35.635022303036855,174.51262522465177</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>-35.635521690133274,174.51196733918377</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>-35.636104055340475,174.51141887700703</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>-35.636665253501405,174.51084362058197</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>-35.6372278558405,174.51026962241093</t>
+        </is>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>-35.63779566052618,174.50970223388572</t>
+        </is>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>-35.6384108022115,174.50921456450646</t>
+        </is>
+      </c>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>-35.63892974847813,174.50868178796298</t>
+        </is>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>-35.6395273266349,174.50825939770826</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>-35.64016002823473,174.50781000249498</t>
+        </is>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>-35.64080844088097,174.5073847142109</t>
+        </is>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>-35.64143717302895,174.50690691113033</t>
+        </is>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>-35.64210139474408,174.50651480904745</t>
+        </is>
+      </c>
+      <c r="T239" t="inlineStr">
+        <is>
+          <t>-35.642718166028644,174.50603353694896</t>
+        </is>
+      </c>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>-35.64337229561445,174.50567830670474</t>
+        </is>
+      </c>
+      <c r="V239" t="inlineStr">
+        <is>
+          <t>-35.64396810296924,174.50520346542905</t>
+        </is>
+      </c>
+      <c r="W239" t="inlineStr">
+        <is>
+          <t>-35.644627773936776,174.50483225973</t>
+        </is>
+      </c>
+      <c r="X239" t="inlineStr">
+        <is>
+          <t>-35.6452663747832,174.50445343829924</t>
+        </is>
+      </c>
+      <c r="Y239" t="inlineStr">
+        <is>
+          <t>-35.6458925338067,174.50401594422857</t>
+        </is>
+      </c>
+      <c r="Z239" t="inlineStr"/>
+      <c r="AA239" t="inlineStr">
+        <is>
+          <t>-35.647241079593414,174.50331396325853</t>
+        </is>
+      </c>
+      <c r="AB239" t="inlineStr">
+        <is>
+          <t>-35.64791979542068,174.5030066588758</t>
+        </is>
+      </c>
+      <c r="AC239" t="inlineStr">
+        <is>
+          <t>-35.64864443719411,174.50296159888734</t>
+        </is>
+      </c>
+      <c r="AD239" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0094/nzd0094.xlsx
+++ b/data/nzd0094/nzd0094.xlsx
@@ -23596,7 +23596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23687,35 +23687,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -23774,27 +23779,28 @@
       <c r="P2" t="n">
         <v>350.143351984393</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.51137286858133 -35.63048222495511, 174.52053138166815 -35.63417545966304)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.5113728685813</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.63048222495511</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.5205313816681</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.63417545966304</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.5159521251247</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.63232884230908</v>
       </c>
     </row>
@@ -23851,27 +23857,28 @@
       <c r="P3" t="n">
         <v>365.1514624991598</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.51096647960276 -35.631133370543466, 174.5201250304395 -35.63482661344257)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.5109664796028</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.63113337054347</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.5201250304395</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.63482661344257</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.5155457550211</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.63297999199302</v>
       </c>
     </row>
@@ -23928,27 +23935,28 @@
       <c r="P4" t="n">
         <v>358.6283697184877</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.51056009062407 -35.63178451082745, 174.51971867921102 -35.63547776191813)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.5105600906241</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.63178451082745</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.519718679211</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.63547776191813</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.5151393849175</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.63363113637279</v>
       </c>
     </row>
@@ -24005,27 +24013,28 @@
       <c r="P5" t="n">
         <v>351.0659871663159</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.51036460007504 -35.63213166452982, 174.51898659172645 -35.63660150921683)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.510364600075</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.63213166452982</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.5189865917264</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.63660150921683</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.5146755959007</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.63436658687333</v>
       </c>
     </row>
@@ -24082,27 +24091,28 @@
       <c r="P6" t="n">
         <v>356.7210603236477</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.51015426419374 -35.63230777712226, 174.51787782507358 -35.637760892157125)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.5101542641937</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.63230777712226</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.5178778250736</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-35.63776089215713</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.5140160446336</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.63503433463969</v>
       </c>
     </row>
@@ -24159,27 +24169,28 @@
       <c r="P7" t="n">
         <v>354.4887192503772</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.50963832115457 -35.632741082968145, 174.51709500059923 -35.63843566378754)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.5096383211546</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-35.63274108296815</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.5170950005992</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-35.63843566378754</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.5133666608769</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-35.63558837337784</v>
       </c>
     </row>
@@ -24236,27 +24247,28 @@
       <c r="P8" t="n">
         <v>354.1418417199149</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.509017600367 -35.63326885009473, 174.51647428514414 -35.63896344224174)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.509017600367</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-35.63326885009473</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.5164742851441</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-35.63896344224174</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.5127459427556</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-35.63611614616823</v>
       </c>
     </row>
@@ -24313,27 +24325,28 @@
       <c r="P9" t="n">
         <v>353.2783034685489</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.50838639069735 -35.633805741747494, 174.51586979949397 -35.639477012630955)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.5083863906974</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-35.63380574174749</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.515869799494</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-35.63947701263096</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.5121280950956</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-35.63664137718922</v>
       </c>
     </row>
@@ -24390,27 +24403,28 @@
       <c r="P10" t="n">
         <v>354.5623665860532</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.50775689237096 -35.634349445489924, 174.51527540420685 -35.63998980442718)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.507756892371</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-35.63434944548992</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.5152754042068</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-35.63998980442718</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.5115161482889</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-35.63716962495855</v>
       </c>
     </row>
@@ -24467,27 +24481,28 @@
       <c r="P11" t="n">
         <v>357.4684332199335</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.5071394439045 -35.634885218324015, 174.5146664386569 -35.64051807299232)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.5071394439045</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-35.63488521832402</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.5146664386569</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-35.64051807299232</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.5109029412807</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-35.63770164565817</v>
       </c>
     </row>
@@ -24544,27 +24559,28 @@
       <c r="P12" t="n">
         <v>363.6348705524551</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.5065253230653 -35.6354180473642, 174.51405232436275 -35.64105091331081)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.5065253230653</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-35.6354180473642</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.5140523243628</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-35.64105091331081</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.510288823714</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-35.6382344803375</v>
       </c>
     </row>
@@ -24621,27 +24637,28 @@
       <c r="P13" t="n">
         <v>372.3263563291326</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.50584785067832 -35.636008263502205, 174.51353622582587 -35.64149444953816)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.5058478506783</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-35.63600826350221</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.5135362258259</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-35.64149444953816</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.5096920382521</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-35.63875135652018</v>
       </c>
     </row>
@@ -24698,27 +24715,28 @@
       <c r="P14" t="n">
         <v>383.1042842659549</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.5049527203234 -35.63689554446146, 174.51344500121456 -35.641527754446884)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.5049527203234</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-35.63689554446146</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.5134450012146</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-35.64152775444688</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.509198860769</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-35.63921164945417</v>
       </c>
     </row>
@@ -24775,27 +24793,28 @@
       <c r="P15" t="n">
         <v>378.1093971071408</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (174.5043104754706 -35.63783207072683, 174.5133517903732 -35.641713168170774)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>174.5043104754706</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-35.63783207072683</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>174.5133517903732</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-35.64171316817077</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>174.5088311329219</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-35.63977261944881</v>
       </c>
     </row>
@@ -24852,27 +24871,28 @@
       <c r="P16" t="n">
         <v>377.8928451162809</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (174.5038839523693 -35.63847459349151, 174.5129253025905 -35.642355699528196)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>174.5038839523693</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-35.63847459349151</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>174.5129253025905</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-35.6423556995282</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>174.5084046274799</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-35.64041514650985</v>
       </c>
     </row>
@@ -24929,27 +24949,28 @@
       <c r="P17" t="n">
         <v>376.6070365554627</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (174.5034826391579 -35.6390788774161, 174.5124598857027 -35.64305766446567)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>174.5034826391579</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-35.6390788774161</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>174.5124598857027</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-35.64305766446567</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>174.5079712624303</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-35.64106827094088</v>
       </c>
     </row>
@@ -25006,27 +25027,28 @@
       <c r="P18" t="n">
         <v>375.9869891775153</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (174.50308399454607 -35.639641259051054, 174.51193755110427 -35.64380013381703)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>174.5030839945461</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-35.63964125905105</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>174.5119375511043</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-35.64380013381703</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>174.5075107728252</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-35.64172069643404</v>
       </c>
     </row>
@@ -25083,27 +25105,28 @@
       <c r="P19" t="n">
         <v>380.0790712914464</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (174.50264206697088 -35.64023351297045, 174.51143653107272 -35.6444749049845)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>174.5026420669709</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-35.64023351297045</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>174.5114365310727</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-35.6444749049845</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>174.5070392990218</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-35.64235420897747</v>
       </c>
     </row>
@@ -25160,27 +25183,28 @@
       <c r="P20" t="n">
         <v>384.3703849007457</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (174.5021769068133 -35.64085805716576, 174.51097140121448 -35.64509945848695)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>174.5021769068133</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-35.64085805716576</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>174.5109714012145</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-35.64509945848695</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>174.5065741540139</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-35.64297875782636</v>
       </c>
     </row>
@@ -25237,27 +25261,28 @@
       <c r="P21" t="n">
         <v>388.5135360938659</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (174.5016292145126 -35.641601418251824, 174.51063374970082 -35.64553927084513)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>174.5016292145126</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-35.64160141825182</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>174.5106337497008</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-35.64553927084513</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>174.5061314821067</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-35.64357034454848</v>
       </c>
     </row>
@@ -25314,27 +25339,28 @@
       <c r="P22" t="n">
         <v>387.8306363961487</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (174.501133982094 -35.642410318085716, 174.51038366310024 -35.645950775188965)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>174.501133982094</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-35.64241031808572</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>174.5103836631002</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-35.64595077518896</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>174.5057588225971</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-35.64418054663734</v>
       </c>
     </row>
@@ -25391,27 +25417,28 @@
       <c r="P23" t="n">
         <v>386.7158798870438</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (174.50073393785297 -35.64310564738028, 174.51003306589766 -35.64655907796074)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>174.500733937853</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-35.64310564738028</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>174.5100330658977</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-35.64655907796074</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>174.5053835018753</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-35.64483236267051</v>
       </c>
     </row>
@@ -25468,27 +25495,28 @@
       <c r="P24" t="n">
         <v>385.6350036919629</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (174.50027011114597 -35.64392608191878, 174.5097808255515 -35.646972933637024)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>174.500270111146</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-35.64392608191878</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>174.5097808255515</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-35.64697293363702</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>174.5050254683487</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-35.6454495077779</v>
       </c>
     </row>
@@ -25545,27 +25573,28 @@
       <c r="P25" t="n">
         <v>378.0515455446073</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
         <is>
           <t>LINESTRING (174.49989718829897 -35.64479831966734, 174.50961327163415 -35.6473792779347)</t>
         </is>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>174.499897188299</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>-35.64479831966734</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>174.5096132716342</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>-35.6473792779347</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>174.5047552299666</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>-35.64608879880102</v>
       </c>
     </row>
@@ -25622,27 +25651,28 @@
       <c r="P26" t="n">
         <v>385.1507429060496</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
         <is>
           <t>LINESTRING (174.49960786649365 -35.64551135576334, 174.50934399171865 -35.64804178719003)</t>
         </is>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>174.4996078664936</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>-35.64551135576334</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>174.5093439917187</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>-35.64804178719003</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>174.5044759291061</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>-35.64677657147669</v>
       </c>
     </row>
@@ -25699,27 +25729,28 @@
       <c r="P27" t="n">
         <v>368.4114178108347</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
         <is>
           <t>LINESTRING (174.49932641737138 -35.6462045987629, 174.50906259263627 -35.648735035659456)</t>
         </is>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>174.4993264173714</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>-35.6462045987629</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>174.5090625926363</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>-35.64873503565946</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>174.5041945050038</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>-35.64746981721117</v>
       </c>
     </row>
@@ -25776,27 +25807,28 @@
       <c r="P28" t="n">
         <v>364.9432486137844</v>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
         <is>
           <t>LINESTRING (174.49897857051786 -35.64708573272335, 174.50888330507578 -35.649136348590574)</t>
         </is>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>174.4989785705179</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>-35.64708573272335</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>174.5088833050758</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>-35.64913634859057</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>174.5039309377968</v>
       </c>
-      <c r="W28" t="n">
+      <c r="X28" t="n">
         <v>-35.64811104065696</v>
       </c>
     </row>
@@ -25853,27 +25885,28 @@
       <c r="P29" t="n">
         <v>372.8680527891673</v>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
         <is>
           <t>LINESTRING (174.4987496656731 -35.64798942842399, 174.5087880052146 -35.649550254821214)</t>
         </is>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>174.4987496656731</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>-35.64798942842399</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>174.5087880052146</v>
       </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>-35.64955025482121</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>174.5037688354439</v>
       </c>
-      <c r="W29" t="n">
+      <c r="X29" t="n">
         <v>-35.6487698416226</v>
       </c>
     </row>

--- a/data/nzd0094/nzd0094.xlsx
+++ b/data/nzd0094/nzd0094.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD239"/>
+  <dimension ref="A1:AD241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21154,6 +21154,192 @@
         </is>
       </c>
     </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr"/>
+      <c r="C240" t="inlineStr"/>
+      <c r="D240" t="n">
+        <v>415.5457142857143</v>
+      </c>
+      <c r="E240" t="n">
+        <v>404.5457142857143</v>
+      </c>
+      <c r="F240" t="n">
+        <v>372.35</v>
+      </c>
+      <c r="G240" t="n">
+        <v>362.97</v>
+      </c>
+      <c r="H240" t="n">
+        <v>357.12</v>
+      </c>
+      <c r="I240" t="n">
+        <v>364.37</v>
+      </c>
+      <c r="J240" t="n">
+        <v>368.8857142857143</v>
+      </c>
+      <c r="K240" t="n">
+        <v>370.5657142857143</v>
+      </c>
+      <c r="L240" t="n">
+        <v>375.4657142857143</v>
+      </c>
+      <c r="M240" t="n">
+        <v>380.1357142857143</v>
+      </c>
+      <c r="N240" t="n">
+        <v>387.2457142857143</v>
+      </c>
+      <c r="O240" t="n">
+        <v>382.54</v>
+      </c>
+      <c r="P240" t="n">
+        <v>377.3057142857143</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>377.2257142857143</v>
+      </c>
+      <c r="R240" t="n">
+        <v>378.88</v>
+      </c>
+      <c r="S240" t="n">
+        <v>379.2457142857143</v>
+      </c>
+      <c r="T240" t="n">
+        <v>384.44</v>
+      </c>
+      <c r="U240" t="n">
+        <v>391.27</v>
+      </c>
+      <c r="V240" t="n">
+        <v>389.13</v>
+      </c>
+      <c r="W240" t="n">
+        <v>389.8033333333333</v>
+      </c>
+      <c r="X240" t="n">
+        <v>389.1733333333333</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>388.45</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>388.3957142857143</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>376.7527272727273</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>371.06</v>
+      </c>
+      <c r="AC240" t="inlineStr"/>
+      <c r="AD240" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:32+00:00</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>330.8733333333333</v>
+      </c>
+      <c r="C241" t="n">
+        <v>375.5766666666667</v>
+      </c>
+      <c r="D241" t="n">
+        <v>381.9342857142857</v>
+      </c>
+      <c r="E241" t="n">
+        <v>368.2942857142857</v>
+      </c>
+      <c r="F241" t="n">
+        <v>358.75</v>
+      </c>
+      <c r="G241" t="n">
+        <v>354.3166666666667</v>
+      </c>
+      <c r="H241" t="n">
+        <v>349.1666666666667</v>
+      </c>
+      <c r="I241" t="n">
+        <v>349.8466666666667</v>
+      </c>
+      <c r="J241" t="n">
+        <v>354.3542857142857</v>
+      </c>
+      <c r="K241" t="n">
+        <v>359.0542857142857</v>
+      </c>
+      <c r="L241" t="n">
+        <v>366.2142857142857</v>
+      </c>
+      <c r="M241" t="n">
+        <v>373.0242857142857</v>
+      </c>
+      <c r="N241" t="n">
+        <v>379.2642857142857</v>
+      </c>
+      <c r="O241" t="n">
+        <v>374.6</v>
+      </c>
+      <c r="P241" t="n">
+        <v>369.6242857142857</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>367.3242857142857</v>
+      </c>
+      <c r="R241" t="n">
+        <v>371.01</v>
+      </c>
+      <c r="S241" t="n">
+        <v>376.9742857142857</v>
+      </c>
+      <c r="T241" t="n">
+        <v>378.05</v>
+      </c>
+      <c r="U241" t="n">
+        <v>384.87</v>
+      </c>
+      <c r="V241" t="n">
+        <v>380.27</v>
+      </c>
+      <c r="W241" t="n">
+        <v>384.7677777777778</v>
+      </c>
+      <c r="X241" t="n">
+        <v>384.1977777777778</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>385.26</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>382.8542857142857</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>372.3981818181818</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>363.2933333333333</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>372.1961538461539</v>
+      </c>
+      <c r="AD241" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21165,7 +21351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B241"/>
+  <dimension ref="A1:B243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23583,6 +23769,26 @@
       </c>
       <c r="B241" t="n">
         <v>-0.32</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>-0.01</v>
       </c>
     </row>
   </sheetData>
@@ -23756,28 +23962,28 @@
         <v>0.0165</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7942465405773529</v>
+        <v>0.7338428998427994</v>
       </c>
       <c r="J2" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K2" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01843946723311607</v>
+        <v>0.01586619678391787</v>
       </c>
       <c r="M2" t="n">
-        <v>27.61942429110892</v>
+        <v>27.69113106839211</v>
       </c>
       <c r="N2" t="n">
-        <v>1516.028434663588</v>
+        <v>1516.172484331296</v>
       </c>
       <c r="O2" t="n">
-        <v>38.93620981379143</v>
+        <v>38.93805958610798</v>
       </c>
       <c r="P2" t="n">
-        <v>350.143351984393</v>
+        <v>350.8490087788722</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23834,28 +24040,28 @@
         <v>0.0438</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1965618505785209</v>
+        <v>0.2038159447407462</v>
       </c>
       <c r="J3" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K3" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002242712441485106</v>
+        <v>0.002439988606244725</v>
       </c>
       <c r="M3" t="n">
-        <v>21.03519634099588</v>
+        <v>20.93008077444872</v>
       </c>
       <c r="N3" t="n">
-        <v>790.7014681751675</v>
+        <v>785.4453908870406</v>
       </c>
       <c r="O3" t="n">
-        <v>28.11941443514014</v>
+        <v>28.02579866635455</v>
       </c>
       <c r="P3" t="n">
-        <v>365.1514624991598</v>
+        <v>365.0684910728787</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23912,28 +24118,28 @@
         <v>0.0513</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5478061328239583</v>
+        <v>0.6151634849008555</v>
       </c>
       <c r="J4" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K4" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0280048966675378</v>
+        <v>0.03497974917937163</v>
       </c>
       <c r="M4" t="n">
-        <v>18.28539705427234</v>
+        <v>18.38745374820051</v>
       </c>
       <c r="N4" t="n">
-        <v>459.6418639343617</v>
+        <v>465.8265976905321</v>
       </c>
       <c r="O4" t="n">
-        <v>21.43925987375408</v>
+        <v>21.5830164177886</v>
       </c>
       <c r="P4" t="n">
-        <v>358.6283697184877</v>
+        <v>357.851739626698</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23990,28 +24196,28 @@
         <v>0.0419</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6694992976230066</v>
+        <v>0.7156442690777716</v>
       </c>
       <c r="J5" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K5" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03628919236271955</v>
+        <v>0.04158853700938958</v>
       </c>
       <c r="M5" t="n">
-        <v>17.83230198607822</v>
+        <v>17.88956141384598</v>
       </c>
       <c r="N5" t="n">
-        <v>499.7062505007279</v>
+        <v>501.5018641074888</v>
       </c>
       <c r="O5" t="n">
-        <v>22.35411037148936</v>
+        <v>22.3942372968469</v>
       </c>
       <c r="P5" t="n">
-        <v>351.0659871663159</v>
+        <v>350.5274153601439</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24068,28 +24274,28 @@
         <v>0.0259</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2506375514343862</v>
+        <v>0.2558525879010711</v>
       </c>
       <c r="J6" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K6" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007567587049598146</v>
+        <v>0.008038616544097099</v>
       </c>
       <c r="M6" t="n">
-        <v>14.9107684659463</v>
+        <v>14.83216768694972</v>
       </c>
       <c r="N6" t="n">
-        <v>351.8202774317923</v>
+        <v>348.8390717950487</v>
       </c>
       <c r="O6" t="n">
-        <v>18.75687280523575</v>
+        <v>18.67723405097898</v>
       </c>
       <c r="P6" t="n">
-        <v>356.7210603236477</v>
+        <v>356.6616678803809</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24146,28 +24352,28 @@
         <v>0.032</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1392056365650578</v>
+        <v>0.1404554727071441</v>
       </c>
       <c r="J7" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K7" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003104159965133024</v>
+        <v>0.003226715560699867</v>
       </c>
       <c r="M7" t="n">
-        <v>13.19480437254292</v>
+        <v>13.10728531111553</v>
       </c>
       <c r="N7" t="n">
-        <v>270.6084346443653</v>
+        <v>268.131029147843</v>
       </c>
       <c r="O7" t="n">
-        <v>16.45018038333821</v>
+        <v>16.37470699425926</v>
       </c>
       <c r="P7" t="n">
-        <v>354.4887192503772</v>
+        <v>354.474932475621</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24224,28 +24430,28 @@
         <v>0.032</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1095408133997392</v>
+        <v>0.1012540675136619</v>
       </c>
       <c r="J8" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K8" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002344835185202787</v>
+        <v>0.002044609789375929</v>
       </c>
       <c r="M8" t="n">
-        <v>12.12541921851102</v>
+        <v>12.05334957795566</v>
       </c>
       <c r="N8" t="n">
-        <v>221.1882528747923</v>
+        <v>219.3028080341504</v>
       </c>
       <c r="O8" t="n">
-        <v>14.87239902889888</v>
+        <v>14.80887598820891</v>
       </c>
       <c r="P8" t="n">
-        <v>354.1418417199149</v>
+        <v>354.2359700525672</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24302,28 +24508,28 @@
         <v>0.0357</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2169816590082234</v>
+        <v>0.2132985072943055</v>
       </c>
       <c r="J9" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K9" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01144229751960024</v>
+        <v>0.01125486855417823</v>
       </c>
       <c r="M9" t="n">
-        <v>10.37383892947476</v>
+        <v>10.34560190044023</v>
       </c>
       <c r="N9" t="n">
-        <v>176.6174988817384</v>
+        <v>175.4609830280815</v>
       </c>
       <c r="O9" t="n">
-        <v>13.28975164861023</v>
+        <v>13.24616861692775</v>
       </c>
       <c r="P9" t="n">
-        <v>353.2783034685489</v>
+        <v>353.3205210468863</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24380,28 +24586,28 @@
         <v>0.0377</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2498536527066329</v>
+        <v>0.2511323433712292</v>
       </c>
       <c r="J10" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K10" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01794761017212221</v>
+        <v>0.0184240151681021</v>
       </c>
       <c r="M10" t="n">
-        <v>9.698957979000056</v>
+        <v>9.675785312691431</v>
       </c>
       <c r="N10" t="n">
-        <v>152.4167084663474</v>
+        <v>151.4789445832069</v>
       </c>
       <c r="O10" t="n">
-        <v>12.34571619900391</v>
+        <v>12.30767827753094</v>
       </c>
       <c r="P10" t="n">
-        <v>354.5623665860532</v>
+        <v>354.5485012933758</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24458,28 +24664,28 @@
         <v>0.0404</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3005147777509819</v>
+        <v>0.2997549299108186</v>
       </c>
       <c r="J11" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K11" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L11" t="n">
-        <v>0.025954906963917</v>
+        <v>0.02629060598471167</v>
       </c>
       <c r="M11" t="n">
-        <v>9.506797092485693</v>
+        <v>9.470802977836996</v>
       </c>
       <c r="N11" t="n">
-        <v>149.7340482281491</v>
+        <v>148.6160180102116</v>
       </c>
       <c r="O11" t="n">
-        <v>12.23658646143397</v>
+        <v>12.19081695417545</v>
       </c>
       <c r="P11" t="n">
-        <v>357.4684332199335</v>
+        <v>357.477354009486</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -24536,28 +24742,28 @@
         <v>0.0403</v>
       </c>
       <c r="I12" t="n">
-        <v>0.260586878894593</v>
+        <v>0.2616778355924365</v>
       </c>
       <c r="J12" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K12" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0227847117361516</v>
+        <v>0.02339429329355824</v>
       </c>
       <c r="M12" t="n">
-        <v>8.853849868856859</v>
+        <v>8.813525618902778</v>
       </c>
       <c r="N12" t="n">
-        <v>127.3896861016228</v>
+        <v>126.3749429698672</v>
       </c>
       <c r="O12" t="n">
-        <v>11.28670395206779</v>
+        <v>11.24166104140608</v>
       </c>
       <c r="P12" t="n">
-        <v>363.6348705524551</v>
+        <v>363.6228216848604</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -24614,28 +24820,28 @@
         <v>0.037</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2270981808727592</v>
+        <v>0.2238087611491741</v>
       </c>
       <c r="J13" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K13" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01757960639749534</v>
+        <v>0.01741233213673021</v>
       </c>
       <c r="M13" t="n">
-        <v>9.105996994488882</v>
+        <v>9.053042293111776</v>
       </c>
       <c r="N13" t="n">
-        <v>125.4609173859458</v>
+        <v>124.3992958896179</v>
       </c>
       <c r="O13" t="n">
-        <v>11.20093377294705</v>
+        <v>11.15344323021451</v>
       </c>
       <c r="P13" t="n">
-        <v>372.3263563291326</v>
+        <v>372.3638390562431</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -24692,28 +24898,28 @@
         <v>0.0357</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09866389079999908</v>
+        <v>0.09381269817778697</v>
       </c>
       <c r="J14" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K14" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003653943395201531</v>
+        <v>0.003364236723249925</v>
       </c>
       <c r="M14" t="n">
-        <v>8.654784765192025</v>
+        <v>8.6126092300566</v>
       </c>
       <c r="N14" t="n">
-        <v>116.0630764147458</v>
+        <v>115.1743745547789</v>
       </c>
       <c r="O14" t="n">
-        <v>10.77325746535122</v>
+        <v>10.73193247065872</v>
       </c>
       <c r="P14" t="n">
-        <v>383.1042842659549</v>
+        <v>383.1596057797041</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -24770,28 +24976,28 @@
         <v>0.0408</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06503539771667957</v>
+        <v>0.06246096074854915</v>
       </c>
       <c r="J15" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K15" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001510997395680502</v>
+        <v>0.00142036374938681</v>
       </c>
       <c r="M15" t="n">
-        <v>8.777951677549771</v>
+        <v>8.731323107714415</v>
       </c>
       <c r="N15" t="n">
-        <v>120.851103056009</v>
+        <v>119.8446690890381</v>
       </c>
       <c r="O15" t="n">
-        <v>10.99322987369995</v>
+        <v>10.9473590006466</v>
       </c>
       <c r="P15" t="n">
-        <v>378.1093971071408</v>
+        <v>378.1391300373969</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -24848,28 +25054,28 @@
         <v>0.0364</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03499277829111318</v>
+        <v>0.02400712127929594</v>
       </c>
       <c r="J16" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K16" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0003890170904375934</v>
+        <v>0.0001861704765594441</v>
       </c>
       <c r="M16" t="n">
-        <v>9.336838231854307</v>
+        <v>9.301188796725675</v>
       </c>
       <c r="N16" t="n">
-        <v>135.4026870726762</v>
+        <v>134.5070983656124</v>
       </c>
       <c r="O16" t="n">
-        <v>11.63626602792649</v>
+        <v>11.5977195329777</v>
       </c>
       <c r="P16" t="n">
-        <v>377.8928451162809</v>
+        <v>378.0200131692795</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -24926,28 +25132,28 @@
         <v>0.0407</v>
       </c>
       <c r="I17" t="n">
-        <v>0.006070804042092303</v>
+        <v>-0.003012677946273678</v>
       </c>
       <c r="J17" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K17" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L17" t="n">
-        <v>1.218405149450152e-05</v>
+        <v>3.048741789801745e-06</v>
       </c>
       <c r="M17" t="n">
-        <v>9.28542256877941</v>
+        <v>9.243280083140398</v>
       </c>
       <c r="N17" t="n">
-        <v>133.8210479522087</v>
+        <v>132.9580510017369</v>
       </c>
       <c r="O17" t="n">
-        <v>11.56810476924412</v>
+        <v>11.53074373150912</v>
       </c>
       <c r="P17" t="n">
-        <v>376.6070365554627</v>
+        <v>376.7109206396505</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -25004,28 +25210,28 @@
         <v>0.041</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07863388737181315</v>
+        <v>0.07239453205989664</v>
       </c>
       <c r="J18" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K18" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L18" t="n">
-        <v>0.00215598118995497</v>
+        <v>0.001860713116780488</v>
       </c>
       <c r="M18" t="n">
-        <v>8.996826461747984</v>
+        <v>8.95205412448777</v>
       </c>
       <c r="N18" t="n">
-        <v>127.4523389194146</v>
+        <v>126.4628608634078</v>
       </c>
       <c r="O18" t="n">
-        <v>11.28947912524819</v>
+        <v>11.24557072199574</v>
       </c>
       <c r="P18" t="n">
-        <v>375.9869891775153</v>
+        <v>376.0576743356904</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -25082,28 +25288,28 @@
         <v>0.0406</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1077950366740123</v>
+        <v>0.0980781737041943</v>
       </c>
       <c r="J19" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K19" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L19" t="n">
-        <v>0.003345239346851159</v>
+        <v>0.002823106623977223</v>
       </c>
       <c r="M19" t="n">
-        <v>9.896131894054694</v>
+        <v>9.850689552086594</v>
       </c>
       <c r="N19" t="n">
-        <v>151.868660734397</v>
+        <v>150.6464774109484</v>
       </c>
       <c r="O19" t="n">
-        <v>12.3235003442365</v>
+        <v>12.27381266807296</v>
       </c>
       <c r="P19" t="n">
-        <v>380.0790712914464</v>
+        <v>380.1888569201528</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -25160,28 +25366,28 @@
         <v>0.0415</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1176855227227962</v>
+        <v>0.1050700701966384</v>
       </c>
       <c r="J20" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K20" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L20" t="n">
-        <v>0.004974505092397385</v>
+        <v>0.004033758560072376</v>
       </c>
       <c r="M20" t="n">
-        <v>8.491612330285712</v>
+        <v>8.46366777813499</v>
       </c>
       <c r="N20" t="n">
-        <v>118.8905511994456</v>
+        <v>118.2161021743816</v>
       </c>
       <c r="O20" t="n">
-        <v>10.90369438307244</v>
+        <v>10.87272285006758</v>
       </c>
       <c r="P20" t="n">
-        <v>384.3703849007457</v>
+        <v>384.5149374450975</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -25238,28 +25444,28 @@
         <v>0.0411</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2049120883648324</v>
+        <v>0.1935867052853747</v>
       </c>
       <c r="J21" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K21" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01503359706890439</v>
+        <v>0.01365328102886942</v>
       </c>
       <c r="M21" t="n">
-        <v>8.436014806225023</v>
+        <v>8.410687259164106</v>
       </c>
       <c r="N21" t="n">
-        <v>118.6566956833178</v>
+        <v>117.9529342508523</v>
       </c>
       <c r="O21" t="n">
-        <v>10.89296542192794</v>
+        <v>10.86061389843375</v>
       </c>
       <c r="P21" t="n">
-        <v>388.5135360938659</v>
+        <v>388.6432661107086</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -25316,28 +25522,28 @@
         <v>0.0445</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1260220328473426</v>
+        <v>0.1135067747506117</v>
       </c>
       <c r="J22" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K22" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L22" t="n">
-        <v>0.00647566435727176</v>
+        <v>0.005335028946730547</v>
       </c>
       <c r="M22" t="n">
-        <v>8.27064829263286</v>
+        <v>8.252814708638152</v>
       </c>
       <c r="N22" t="n">
-        <v>108.7062149548874</v>
+        <v>108.248681943799</v>
       </c>
       <c r="O22" t="n">
-        <v>10.42622726372715</v>
+        <v>10.40426268141088</v>
       </c>
       <c r="P22" t="n">
-        <v>387.8306363961487</v>
+        <v>387.9711036175688</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -25394,28 +25600,28 @@
         <v>0.047</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1069460354247053</v>
+        <v>0.1025977789919142</v>
       </c>
       <c r="J23" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K23" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00490523153808442</v>
+        <v>0.004600606194027468</v>
       </c>
       <c r="M23" t="n">
-        <v>7.992568761992656</v>
+        <v>7.94250342567167</v>
       </c>
       <c r="N23" t="n">
-        <v>103.834003494502</v>
+        <v>102.9614039765033</v>
       </c>
       <c r="O23" t="n">
-        <v>10.18989712874973</v>
+        <v>10.14698989732932</v>
       </c>
       <c r="P23" t="n">
-        <v>386.7158798870438</v>
+        <v>386.7647334188749</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -25472,28 +25678,28 @@
         <v>0.0484</v>
       </c>
       <c r="I24" t="n">
-        <v>0.130622409066937</v>
+        <v>0.1258553581626125</v>
       </c>
       <c r="J24" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K24" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L24" t="n">
-        <v>0.006745798361260547</v>
+        <v>0.006387898917537216</v>
       </c>
       <c r="M24" t="n">
-        <v>8.362968812910424</v>
+        <v>8.309562117541883</v>
       </c>
       <c r="N24" t="n">
-        <v>110.9964019400716</v>
+        <v>110.0422330106234</v>
       </c>
       <c r="O24" t="n">
-        <v>10.53548299510144</v>
+        <v>10.49010166826916</v>
       </c>
       <c r="P24" t="n">
-        <v>385.6350036919629</v>
+        <v>385.6886751341466</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -25550,28 +25756,28 @@
         <v>0.0518</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1414285652542378</v>
+        <v>0.1523845802639488</v>
       </c>
       <c r="J25" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K25" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01041761642198347</v>
+        <v>0.01228622767623055</v>
       </c>
       <c r="M25" t="n">
-        <v>7.09865305879377</v>
+        <v>7.073103388097572</v>
       </c>
       <c r="N25" t="n">
-        <v>84.00885979574414</v>
+        <v>83.47230171239482</v>
       </c>
       <c r="O25" t="n">
-        <v>9.165634718651194</v>
+        <v>9.136317732675174</v>
       </c>
       <c r="P25" t="n">
-        <v>378.0515455446073</v>
+        <v>377.9290618400414</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -25628,28 +25834,28 @@
         <v>0.0363</v>
       </c>
       <c r="I26" t="n">
-        <v>0.06181496438584148</v>
+        <v>0.05930431531213889</v>
       </c>
       <c r="J26" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K26" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001406330537353839</v>
+        <v>0.001321905456126427</v>
       </c>
       <c r="M26" t="n">
-        <v>8.200946318482716</v>
+        <v>8.146377781761917</v>
       </c>
       <c r="N26" t="n">
-        <v>117.4912641291713</v>
+        <v>116.3715274190516</v>
       </c>
       <c r="O26" t="n">
-        <v>10.83933873117596</v>
+        <v>10.78756355341889</v>
       </c>
       <c r="P26" t="n">
-        <v>385.1507429060496</v>
+        <v>385.179572884579</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -25706,28 +25912,28 @@
         <v>0.0617</v>
       </c>
       <c r="I27" t="n">
-        <v>0.07997368867513847</v>
+        <v>0.08848070058394415</v>
       </c>
       <c r="J27" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K27" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L27" t="n">
-        <v>0.003824991904513686</v>
+        <v>0.004760220681940486</v>
       </c>
       <c r="M27" t="n">
-        <v>6.49447202301748</v>
+        <v>6.466518132026523</v>
       </c>
       <c r="N27" t="n">
-        <v>73.93270257226557</v>
+        <v>73.42383888702466</v>
       </c>
       <c r="O27" t="n">
-        <v>8.598412793781511</v>
+        <v>8.568771142178129</v>
       </c>
       <c r="P27" t="n">
-        <v>368.4114178108347</v>
+        <v>368.3159672943874</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -25784,28 +25990,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>0.07572688714518019</v>
+        <v>0.07633187386307834</v>
       </c>
       <c r="J28" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K28" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L28" t="n">
-        <v>0.003191131792680046</v>
+        <v>0.003306634131426844</v>
       </c>
       <c r="M28" t="n">
-        <v>6.48048150738941</v>
+        <v>6.453732243519302</v>
       </c>
       <c r="N28" t="n">
-        <v>78.84787639314308</v>
+        <v>78.201777055253</v>
       </c>
       <c r="O28" t="n">
-        <v>8.879632672196699</v>
+        <v>8.843176864410946</v>
       </c>
       <c r="P28" t="n">
-        <v>364.9432486137844</v>
+        <v>364.936712862178</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -25862,28 +26068,28 @@
         <v>0.0766</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.02595504312112152</v>
+        <v>-0.02596356136996314</v>
       </c>
       <c r="J29" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K29" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0004479177100094045</v>
+        <v>0.0004528145022216767</v>
       </c>
       <c r="M29" t="n">
-        <v>6.178511335695552</v>
+        <v>6.147350613957087</v>
       </c>
       <c r="N29" t="n">
-        <v>65.81303924619588</v>
+        <v>65.48065046987864</v>
       </c>
       <c r="O29" t="n">
-        <v>8.112523605278193</v>
+        <v>8.092011521857755</v>
       </c>
       <c r="P29" t="n">
-        <v>372.8680527891673</v>
+        <v>372.868150803898</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -25921,7 +26127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD239"/>
+  <dimension ref="A1:AD241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57693,6 +57899,298 @@
         </is>
       </c>
     </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr"/>
+      <c r="C240" t="inlineStr"/>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>-35.63344356038576,174.51467390808932</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>-35.63408667703424,174.51413540163963</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>-35.63450349744698,174.51326397406925</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>-35.63497640310772,174.51256512312932</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>-35.6354681536427,174.5118972385017</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>-35.63604049606452,174.5113350105961</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>-35.63659955180286,174.51075604313735</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>-35.637142565957085,174.51015565479486</t>
+        </is>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>-35.63770525342292,174.50958142842168</t>
+        </is>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>-35.638263543966936,174.50900819949317</t>
+        </is>
+      </c>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>-35.6388350348538,174.5085081515243</t>
+        </is>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>-35.63943712111662,174.50804926135652</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>-35.640057690829586,174.50757160442933</t>
+        </is>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>-35.64070150413616,174.50714344043274</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>-35.6413448220079,174.50671031520372</t>
+        </is>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>-35.64197258308419,174.50624772518648</t>
+        </is>
+      </c>
+      <c r="T240" t="inlineStr">
+        <is>
+          <t>-35.64262095417229,174.50583197318318</t>
+        </is>
+      </c>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>-35.643267146126675,174.50543786962393</t>
+        </is>
+      </c>
+      <c r="V240" t="inlineStr">
+        <is>
+          <t>-35.643899672263004,174.5050246892826</t>
+        </is>
+      </c>
+      <c r="W240" t="inlineStr">
+        <is>
+          <t>-35.64456089326681,174.50465217238897</t>
+        </is>
+      </c>
+      <c r="X240" t="inlineStr">
+        <is>
+          <t>-35.64520786530724,174.50427080576569</t>
+        </is>
+      </c>
+      <c r="Y240" t="inlineStr">
+        <is>
+          <t>-35.64588204458576,174.50397645843537</t>
+        </is>
+      </c>
+      <c r="Z240" t="inlineStr">
+        <is>
+          <t>-35.64657371563485,174.50369496988245</t>
+        </is>
+      </c>
+      <c r="AA240" t="inlineStr">
+        <is>
+          <t>-35.64723511957667,174.50329103213605</t>
+        </is>
+      </c>
+      <c r="AB240" t="inlineStr">
+        <is>
+          <t>-35.647908211128104,174.50295070770602</t>
+        </is>
+      </c>
+      <c r="AC240" t="inlineStr"/>
+      <c r="AD240" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:32+00:00</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>-35.631803221748456,174.5146483874853</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>-35.632632843954276,174.5146845784361</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>-35.6333093735045,174.51434115565326</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>-35.63391149296856,174.51379749191108</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>-35.63442330075621,174.51315038963435</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>-35.63492311316772,174.5124953452403</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>-35.635419174284536,174.51183310506067</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>-35.63595142302127,174.5112174791523</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>-35.63651091539848,174.51063789511906</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>-35.63707244385478,174.5100619552462</t>
+        </is>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>-35.63764889794313,174.50950612427712</t>
+        </is>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>-35.63822135388093,174.50894907531358</t>
+        </is>
+      </c>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>-35.6387950615905,174.50843486967094</t>
+        </is>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>-35.63940380791296,174.50797165763012</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>-35.64002546229764,174.50749652745304</t>
+        </is>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>-35.64065891486959,174.50704734978746</t>
+        </is>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>-35.64130943718072,174.50663498864472</t>
+        </is>
+      </c>
+      <c r="S241" t="inlineStr">
+        <is>
+          <t>-35.64196216754978,174.5062261292439</t>
+        </is>
+      </c>
+      <c r="T241" t="inlineStr">
+        <is>
+          <t>-35.642591652982624,174.50577121891592</t>
+        </is>
+      </c>
+      <c r="U241" t="inlineStr">
+        <is>
+          <t>-35.64323990083413,174.5053755702382</t>
+        </is>
+      </c>
+      <c r="V241" t="inlineStr">
+        <is>
+          <t>-35.64386576298613,174.5049361012129</t>
+        </is>
+      </c>
+      <c r="W241" t="inlineStr">
+        <is>
+          <t>-35.64454209495365,174.50460155498757</t>
+        </is>
+      </c>
+      <c r="X241" t="inlineStr">
+        <is>
+          <t>-35.64519147865095,174.50421965636633</t>
+        </is>
+      </c>
+      <c r="Y241" t="inlineStr">
+        <is>
+          <t>-35.64587314547571,174.5039429585282</t>
+        </is>
+      </c>
+      <c r="Z241" t="inlineStr">
+        <is>
+          <t>-35.6465585594308,174.50363665648226</t>
+        </is>
+      </c>
+      <c r="AA241" t="inlineStr">
+        <is>
+          <t>-35.647223209475655,174.50324520816727</t>
+        </is>
+      </c>
+      <c r="AB241" t="inlineStr">
+        <is>
+          <t>-35.647890997175175,174.50286756600877</t>
+        </is>
+      </c>
+      <c r="AC241" t="inlineStr">
+        <is>
+          <t>-35.648617377176244,174.50278757335357</t>
+        </is>
+      </c>
+      <c r="AD241" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0094/nzd0094.xlsx
+++ b/data/nzd0094/nzd0094.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD241"/>
+  <dimension ref="A1:AD243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21250,9 +21250,7 @@
           <t>2025-04-27 22:11:32+00:00</t>
         </is>
       </c>
-      <c r="B241" t="n">
-        <v>330.8733333333333</v>
-      </c>
+      <c r="B241" t="inlineStr"/>
       <c r="C241" t="n">
         <v>375.5766666666667</v>
       </c>
@@ -21337,6 +21335,194 @@
       <c r="AD241" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>342.0766666666667</v>
+      </c>
+      <c r="C242" t="n">
+        <v>370.8033333333333</v>
+      </c>
+      <c r="D242" t="n">
+        <v>371.1371428571428</v>
+      </c>
+      <c r="E242" t="n">
+        <v>361.2971428571428</v>
+      </c>
+      <c r="F242" t="n">
+        <v>359.76</v>
+      </c>
+      <c r="G242" t="n">
+        <v>354.8733333333333</v>
+      </c>
+      <c r="H242" t="n">
+        <v>355.4233333333333</v>
+      </c>
+      <c r="I242" t="n">
+        <v>353.5633333333333</v>
+      </c>
+      <c r="J242" t="n">
+        <v>357.8471428571428</v>
+      </c>
+      <c r="K242" t="n">
+        <v>363.5571428571428</v>
+      </c>
+      <c r="L242" t="n">
+        <v>371.5771428571429</v>
+      </c>
+      <c r="M242" t="n">
+        <v>377.7471428571428</v>
+      </c>
+      <c r="N242" t="n">
+        <v>384.3371428571429</v>
+      </c>
+      <c r="O242" t="n">
+        <v>379.49</v>
+      </c>
+      <c r="P242" t="n">
+        <v>371.8271428571429</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>374.8471428571429</v>
+      </c>
+      <c r="R242" t="n">
+        <v>372.62</v>
+      </c>
+      <c r="S242" t="n">
+        <v>381.4071428571429</v>
+      </c>
+      <c r="T242" t="n">
+        <v>378.64</v>
+      </c>
+      <c r="U242" t="n">
+        <v>390.25</v>
+      </c>
+      <c r="V242" t="n">
+        <v>386.84</v>
+      </c>
+      <c r="W242" t="n">
+        <v>389.3088888888889</v>
+      </c>
+      <c r="X242" t="n">
+        <v>390.3488888888889</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>385.58</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>381.9271428571428</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>375.9863636363637</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>364.1066666666667</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>374.6792307692308</v>
+      </c>
+      <c r="AD242" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr"/>
+      <c r="C243" t="inlineStr"/>
+      <c r="D243" t="n">
+        <v>391.1071428571428</v>
+      </c>
+      <c r="E243" t="n">
+        <v>395.5671428571428</v>
+      </c>
+      <c r="F243" t="n">
+        <v>384.74</v>
+      </c>
+      <c r="G243" t="n">
+        <v>380.8066666666667</v>
+      </c>
+      <c r="H243" t="n">
+        <v>358.4066666666667</v>
+      </c>
+      <c r="I243" t="n">
+        <v>351.5966666666667</v>
+      </c>
+      <c r="J243" t="n">
+        <v>357.4571428571429</v>
+      </c>
+      <c r="K243" t="n">
+        <v>361.0371428571429</v>
+      </c>
+      <c r="L243" t="n">
+        <v>366.2871428571429</v>
+      </c>
+      <c r="M243" t="n">
+        <v>374.4171428571429</v>
+      </c>
+      <c r="N243" t="n">
+        <v>385.3171428571428</v>
+      </c>
+      <c r="O243" t="n">
+        <v>395.27</v>
+      </c>
+      <c r="P243" t="n">
+        <v>372.9471428571428</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>371.8471428571429</v>
+      </c>
+      <c r="R243" t="n">
+        <v>369.84</v>
+      </c>
+      <c r="S243" t="n">
+        <v>373.6271428571428</v>
+      </c>
+      <c r="T243" t="n">
+        <v>381.37</v>
+      </c>
+      <c r="U243" t="n">
+        <v>383.4</v>
+      </c>
+      <c r="V243" t="n">
+        <v>387.25</v>
+      </c>
+      <c r="W243" t="n">
+        <v>389.0477777777778</v>
+      </c>
+      <c r="X243" t="n">
+        <v>392.9377777777778</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>380.94</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>388.8671428571428</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>372.3963636363636</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>374.9233333333333</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>372.0130769230769</v>
+      </c>
+      <c r="AD243" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -21351,7 +21537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B243"/>
+  <dimension ref="A1:B245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23789,6 +23975,26 @@
       </c>
       <c r="B243" t="n">
         <v>-0.01</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>-0.46</v>
       </c>
     </row>
   </sheetData>
@@ -23962,28 +24168,28 @@
         <v>0.0165</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7338428998427994</v>
+        <v>0.7506717552741373</v>
       </c>
       <c r="J2" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K2" t="n">
         <v>125</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01586619678391787</v>
+        <v>0.0166564842621667</v>
       </c>
       <c r="M2" t="n">
-        <v>27.69113106839211</v>
+        <v>27.6075616178289</v>
       </c>
       <c r="N2" t="n">
-        <v>1516.172484331296</v>
+        <v>1510.224012079585</v>
       </c>
       <c r="O2" t="n">
-        <v>38.93805958610798</v>
+        <v>38.86160074005683</v>
       </c>
       <c r="P2" t="n">
-        <v>350.8490087788722</v>
+        <v>350.653534057616</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24040,28 +24246,28 @@
         <v>0.0438</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2038159447407462</v>
+        <v>0.2044942591141189</v>
       </c>
       <c r="J3" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K3" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002439988606244725</v>
+        <v>0.002485981328431808</v>
       </c>
       <c r="M3" t="n">
-        <v>20.93008077444872</v>
+        <v>20.79042643543409</v>
       </c>
       <c r="N3" t="n">
-        <v>785.4453908870406</v>
+        <v>780.0673883416049</v>
       </c>
       <c r="O3" t="n">
-        <v>28.02579866635455</v>
+        <v>27.92968650632522</v>
       </c>
       <c r="P3" t="n">
-        <v>365.0684910728787</v>
+        <v>365.0607157662772</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24118,28 +24324,28 @@
         <v>0.0513</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6151634849008555</v>
+        <v>0.6341757481499816</v>
       </c>
       <c r="J4" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K4" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03497974917937163</v>
+        <v>0.03778450159800029</v>
       </c>
       <c r="M4" t="n">
-        <v>18.38745374820051</v>
+        <v>18.28234819002049</v>
       </c>
       <c r="N4" t="n">
-        <v>465.8265976905321</v>
+        <v>461.8769666311013</v>
       </c>
       <c r="O4" t="n">
-        <v>21.5830164177886</v>
+        <v>21.49132305445854</v>
       </c>
       <c r="P4" t="n">
-        <v>357.851739626698</v>
+        <v>357.6306890533291</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24196,28 +24402,28 @@
         <v>0.0419</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7156442690777716</v>
+        <v>0.7394755913086536</v>
       </c>
       <c r="J5" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K5" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04158853700938958</v>
+        <v>0.04489841366462011</v>
       </c>
       <c r="M5" t="n">
-        <v>17.88956141384598</v>
+        <v>17.91171312242457</v>
       </c>
       <c r="N5" t="n">
-        <v>501.5018641074888</v>
+        <v>500.106785847539</v>
       </c>
       <c r="O5" t="n">
-        <v>22.3942372968469</v>
+        <v>22.36306745166099</v>
       </c>
       <c r="P5" t="n">
-        <v>350.5274153601439</v>
+        <v>350.2468197266818</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24274,28 +24480,28 @@
         <v>0.0259</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2558525879010711</v>
+        <v>0.2752616298493956</v>
       </c>
       <c r="J6" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K6" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L6" t="n">
-        <v>0.008038616544097099</v>
+        <v>0.009423922843936006</v>
       </c>
       <c r="M6" t="n">
-        <v>14.83216768694972</v>
+        <v>14.81876537388741</v>
       </c>
       <c r="N6" t="n">
-        <v>348.8390717950487</v>
+        <v>347.7173078645797</v>
       </c>
       <c r="O6" t="n">
-        <v>18.67723405097898</v>
+        <v>18.64717962225333</v>
       </c>
       <c r="P6" t="n">
-        <v>356.6616678803809</v>
+        <v>356.4376256347018</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24352,28 +24558,28 @@
         <v>0.032</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1404554727071441</v>
+        <v>0.161377269132867</v>
       </c>
       <c r="J7" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K7" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003226715560699867</v>
+        <v>0.004305435905207156</v>
       </c>
       <c r="M7" t="n">
-        <v>13.10728531111553</v>
+        <v>13.10298629665158</v>
       </c>
       <c r="N7" t="n">
-        <v>268.131029147843</v>
+        <v>268.0566453525645</v>
       </c>
       <c r="O7" t="n">
-        <v>16.37470699425926</v>
+        <v>16.37243553514762</v>
       </c>
       <c r="P7" t="n">
-        <v>354.474932475621</v>
+        <v>354.2380235920211</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24430,28 +24636,28 @@
         <v>0.032</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1012540675136619</v>
+        <v>0.1014347240681575</v>
       </c>
       <c r="J8" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K8" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002044609789375929</v>
+        <v>0.002095180692989307</v>
       </c>
       <c r="M8" t="n">
-        <v>12.05334957795566</v>
+        <v>11.95012346291919</v>
       </c>
       <c r="N8" t="n">
-        <v>219.3028080341504</v>
+        <v>217.1850095330738</v>
       </c>
       <c r="O8" t="n">
-        <v>14.80887598820891</v>
+        <v>14.73719815748821</v>
       </c>
       <c r="P8" t="n">
-        <v>354.2359700525672</v>
+        <v>354.2338972353509</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24508,28 +24714,28 @@
         <v>0.0357</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2132985072943055</v>
+        <v>0.200499804951801</v>
       </c>
       <c r="J9" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K9" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01125486855417823</v>
+        <v>0.01013868774226789</v>
       </c>
       <c r="M9" t="n">
-        <v>10.34560190044023</v>
+        <v>10.30952287081098</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4609830280815</v>
+        <v>174.1617298826868</v>
       </c>
       <c r="O9" t="n">
-        <v>13.24616861692775</v>
+        <v>13.19703488980334</v>
       </c>
       <c r="P9" t="n">
-        <v>353.3205210468863</v>
+        <v>353.4663046195366</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24586,28 +24792,28 @@
         <v>0.0377</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2511323433712292</v>
+        <v>0.2445000459782293</v>
       </c>
       <c r="J10" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K10" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0184240151681021</v>
+        <v>0.01780768037316716</v>
       </c>
       <c r="M10" t="n">
-        <v>9.675785312691431</v>
+        <v>9.616615095914398</v>
       </c>
       <c r="N10" t="n">
-        <v>151.4789445832069</v>
+        <v>150.1584056873458</v>
       </c>
       <c r="O10" t="n">
-        <v>12.30767827753094</v>
+        <v>12.25391389260369</v>
       </c>
       <c r="P10" t="n">
-        <v>354.5485012933758</v>
+        <v>354.6232506718766</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24664,28 +24870,28 @@
         <v>0.0404</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2997549299108186</v>
+        <v>0.2939049597930493</v>
       </c>
       <c r="J11" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K11" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02629060598471167</v>
+        <v>0.02578573714563637</v>
       </c>
       <c r="M11" t="n">
-        <v>9.470802977836996</v>
+        <v>9.406209174633084</v>
       </c>
       <c r="N11" t="n">
-        <v>148.6160180102116</v>
+        <v>147.2917161132955</v>
       </c>
       <c r="O11" t="n">
-        <v>12.19081695417545</v>
+        <v>12.13637986029176</v>
       </c>
       <c r="P11" t="n">
-        <v>357.477354009486</v>
+        <v>357.5434687323544</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -24742,28 +24948,28 @@
         <v>0.0403</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2616778355924365</v>
+        <v>0.2588072173868404</v>
       </c>
       <c r="J12" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K12" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02339429329355824</v>
+        <v>0.02333277774387987</v>
       </c>
       <c r="M12" t="n">
-        <v>8.813525618902778</v>
+        <v>8.754361922331071</v>
       </c>
       <c r="N12" t="n">
-        <v>126.3749429698672</v>
+        <v>125.2562495900615</v>
       </c>
       <c r="O12" t="n">
-        <v>11.24166104140608</v>
+        <v>11.19179385040939</v>
       </c>
       <c r="P12" t="n">
-        <v>363.6228216848604</v>
+        <v>363.6555253939916</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -24820,28 +25026,28 @@
         <v>0.037</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2238087611491741</v>
+        <v>0.2196349188467961</v>
       </c>
       <c r="J13" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K13" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01741233213673021</v>
+        <v>0.01710936874193059</v>
       </c>
       <c r="M13" t="n">
-        <v>9.053042293111776</v>
+        <v>8.985830822277345</v>
       </c>
       <c r="N13" t="n">
-        <v>124.3992958896179</v>
+        <v>123.278718739917</v>
       </c>
       <c r="O13" t="n">
-        <v>11.15344323021451</v>
+        <v>11.10309500724537</v>
       </c>
       <c r="P13" t="n">
-        <v>372.3638390562431</v>
+        <v>372.4113564034383</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -24898,28 +25104,28 @@
         <v>0.0357</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09381269817778697</v>
+        <v>0.09234352396020852</v>
       </c>
       <c r="J14" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K14" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003364236723249925</v>
+        <v>0.003323568714767022</v>
       </c>
       <c r="M14" t="n">
-        <v>8.6126092300566</v>
+        <v>8.539625722091106</v>
       </c>
       <c r="N14" t="n">
-        <v>115.1743745547789</v>
+        <v>114.1101261956296</v>
       </c>
       <c r="O14" t="n">
-        <v>10.73193247065872</v>
+        <v>10.68223413877591</v>
       </c>
       <c r="P14" t="n">
-        <v>383.1596057797041</v>
+        <v>383.1763612044407</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -24976,28 +25182,28 @@
         <v>0.0408</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06246096074854915</v>
+        <v>0.07824560934455088</v>
       </c>
       <c r="J15" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K15" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00142036374938681</v>
+        <v>0.002250287290191499</v>
       </c>
       <c r="M15" t="n">
-        <v>8.731323107714415</v>
+        <v>8.724735276954988</v>
       </c>
       <c r="N15" t="n">
-        <v>119.8446690890381</v>
+        <v>119.8355747862345</v>
       </c>
       <c r="O15" t="n">
-        <v>10.9473590006466</v>
+        <v>10.94694362761746</v>
       </c>
       <c r="P15" t="n">
-        <v>378.1391300373969</v>
+        <v>377.9574670673435</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -25054,28 +25260,28 @@
         <v>0.0364</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02400712127929594</v>
+        <v>0.01137535213205946</v>
       </c>
       <c r="J16" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K16" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001861704765594441</v>
+        <v>4.249854829163624e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>9.301188796725675</v>
+        <v>9.274637965736046</v>
       </c>
       <c r="N16" t="n">
-        <v>134.5070983656124</v>
+        <v>133.5903469267839</v>
       </c>
       <c r="O16" t="n">
-        <v>11.5977195329777</v>
+        <v>11.55812904092976</v>
       </c>
       <c r="P16" t="n">
-        <v>378.0200131692795</v>
+        <v>378.1666867381463</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -25132,28 +25338,28 @@
         <v>0.0407</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.003012677946273678</v>
+        <v>-0.009515948348651796</v>
       </c>
       <c r="J17" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K17" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L17" t="n">
-        <v>3.048741789801745e-06</v>
+        <v>3.096715831718555e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>9.243280083140398</v>
+        <v>9.185343901003542</v>
       </c>
       <c r="N17" t="n">
-        <v>132.9580510017369</v>
+        <v>131.8131952994421</v>
       </c>
       <c r="O17" t="n">
-        <v>11.53074373150912</v>
+        <v>11.48099278370308</v>
       </c>
       <c r="P17" t="n">
-        <v>376.7109206396505</v>
+        <v>376.7854693523709</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -25210,28 +25416,28 @@
         <v>0.041</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07239453205989664</v>
+        <v>0.0590525948456214</v>
       </c>
       <c r="J18" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K18" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001860713116780488</v>
+        <v>0.001258704930990562</v>
       </c>
       <c r="M18" t="n">
-        <v>8.95205412448777</v>
+        <v>8.938757164054522</v>
       </c>
       <c r="N18" t="n">
-        <v>126.4628608634078</v>
+        <v>125.6901791369163</v>
       </c>
       <c r="O18" t="n">
-        <v>11.24557072199574</v>
+        <v>11.21116314826059</v>
       </c>
       <c r="P18" t="n">
-        <v>376.0576743356904</v>
+        <v>376.2090710907112</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -25288,28 +25494,28 @@
         <v>0.0406</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0980781737041943</v>
+        <v>0.08758769649108797</v>
       </c>
       <c r="J19" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K19" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002823106623977223</v>
+        <v>0.002291942986710649</v>
       </c>
       <c r="M19" t="n">
-        <v>9.850689552086594</v>
+        <v>9.809351782188235</v>
       </c>
       <c r="N19" t="n">
-        <v>150.6464774109484</v>
+        <v>149.6193662653299</v>
       </c>
       <c r="O19" t="n">
-        <v>12.27381266807296</v>
+        <v>12.23189953626704</v>
       </c>
       <c r="P19" t="n">
-        <v>380.1888569201528</v>
+        <v>380.3079434254699</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -25366,28 +25572,28 @@
         <v>0.0415</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1050700701966384</v>
+        <v>0.09053738767228241</v>
       </c>
       <c r="J20" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K20" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L20" t="n">
-        <v>0.004033758560072376</v>
+        <v>0.003044933843413977</v>
       </c>
       <c r="M20" t="n">
-        <v>8.46366777813499</v>
+        <v>8.443449892669829</v>
       </c>
       <c r="N20" t="n">
-        <v>118.2161021743816</v>
+        <v>117.6055138548823</v>
       </c>
       <c r="O20" t="n">
-        <v>10.87272285006758</v>
+        <v>10.84460759340246</v>
       </c>
       <c r="P20" t="n">
-        <v>384.5149374450975</v>
+        <v>384.6820333730163</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -25444,28 +25650,28 @@
         <v>0.0411</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1935867052853747</v>
+        <v>0.1802991585465374</v>
       </c>
       <c r="J21" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K21" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01365328102886942</v>
+        <v>0.01203759465160392</v>
       </c>
       <c r="M21" t="n">
-        <v>8.410687259164106</v>
+        <v>8.394183584280746</v>
       </c>
       <c r="N21" t="n">
-        <v>117.9529342508523</v>
+        <v>117.3964052493283</v>
       </c>
       <c r="O21" t="n">
-        <v>10.86061389843375</v>
+        <v>10.8349621711074</v>
       </c>
       <c r="P21" t="n">
-        <v>388.6432661107086</v>
+        <v>388.7960345032771</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -25522,28 +25728,28 @@
         <v>0.0445</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1135067747506117</v>
+        <v>0.1060957953694192</v>
       </c>
       <c r="J22" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K22" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L22" t="n">
-        <v>0.005335028946730547</v>
+        <v>0.004747738308617855</v>
       </c>
       <c r="M22" t="n">
-        <v>8.252814708638152</v>
+        <v>8.211859744268542</v>
       </c>
       <c r="N22" t="n">
-        <v>108.248681943799</v>
+        <v>107.3950435399998</v>
       </c>
       <c r="O22" t="n">
-        <v>10.40426268141088</v>
+        <v>10.36315799068989</v>
       </c>
       <c r="P22" t="n">
-        <v>387.9711036175688</v>
+        <v>388.0545431391085</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -25600,28 +25806,28 @@
         <v>0.047</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1025977789919142</v>
+        <v>0.1021714788970606</v>
       </c>
       <c r="J23" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K23" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L23" t="n">
-        <v>0.004600606194027468</v>
+        <v>0.004651240676248891</v>
       </c>
       <c r="M23" t="n">
-        <v>7.94250342567167</v>
+        <v>7.870702110832791</v>
       </c>
       <c r="N23" t="n">
-        <v>102.9614039765033</v>
+        <v>102.0042093299052</v>
       </c>
       <c r="O23" t="n">
-        <v>10.14698989732932</v>
+        <v>10.0997133290953</v>
       </c>
       <c r="P23" t="n">
-        <v>386.7647334188749</v>
+        <v>386.7695332810203</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -25678,28 +25884,28 @@
         <v>0.0484</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1258553581626125</v>
+        <v>0.1314168701381938</v>
       </c>
       <c r="J24" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K24" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L24" t="n">
-        <v>0.006387898917537216</v>
+        <v>0.007096231542828124</v>
       </c>
       <c r="M24" t="n">
-        <v>8.309562117541883</v>
+        <v>8.252767089842026</v>
       </c>
       <c r="N24" t="n">
-        <v>110.0422330106234</v>
+        <v>109.0835062900206</v>
       </c>
       <c r="O24" t="n">
-        <v>10.49010166826916</v>
+        <v>10.44430496921746</v>
       </c>
       <c r="P24" t="n">
-        <v>385.6886751341466</v>
+        <v>385.6259187346244</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -25756,28 +25962,28 @@
         <v>0.0518</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1523845802639488</v>
+        <v>0.1553354764188143</v>
       </c>
       <c r="J25" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K25" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01228622767623055</v>
+        <v>0.01301255200098828</v>
       </c>
       <c r="M25" t="n">
-        <v>7.073103388097572</v>
+        <v>7.025679308713617</v>
       </c>
       <c r="N25" t="n">
-        <v>83.47230171239482</v>
+        <v>82.74043438647853</v>
       </c>
       <c r="O25" t="n">
-        <v>9.136317732675174</v>
+        <v>9.096176910465106</v>
       </c>
       <c r="P25" t="n">
-        <v>377.9290618400414</v>
+        <v>377.8959030659703</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -25834,28 +26040,28 @@
         <v>0.0363</v>
       </c>
       <c r="I26" t="n">
-        <v>0.05930431531213889</v>
+        <v>0.05645332032847861</v>
       </c>
       <c r="J26" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K26" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001321905456126427</v>
+        <v>0.00122235545552718</v>
       </c>
       <c r="M26" t="n">
-        <v>8.146377781761917</v>
+        <v>8.10042047819795</v>
       </c>
       <c r="N26" t="n">
-        <v>116.3715274190516</v>
+        <v>115.3236665172795</v>
       </c>
       <c r="O26" t="n">
-        <v>10.78756355341889</v>
+        <v>10.73888572046837</v>
       </c>
       <c r="P26" t="n">
-        <v>385.179572884579</v>
+        <v>385.2122102431285</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -25912,28 +26118,28 @@
         <v>0.0617</v>
       </c>
       <c r="I27" t="n">
-        <v>0.08848070058394415</v>
+        <v>0.09581807746120327</v>
       </c>
       <c r="J27" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K27" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L27" t="n">
-        <v>0.004760220681940486</v>
+        <v>0.005678184793569407</v>
       </c>
       <c r="M27" t="n">
-        <v>6.466518132026523</v>
+        <v>6.433840161489214</v>
       </c>
       <c r="N27" t="n">
-        <v>73.42383888702466</v>
+        <v>72.87295444901972</v>
       </c>
       <c r="O27" t="n">
-        <v>8.568771142178129</v>
+        <v>8.53656572920397</v>
       </c>
       <c r="P27" t="n">
-        <v>368.3159672943874</v>
+        <v>368.2331118267525</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -25990,28 +26196,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>0.07633187386307834</v>
+        <v>0.08200987418271596</v>
       </c>
       <c r="J28" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K28" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L28" t="n">
-        <v>0.003306634131426844</v>
+        <v>0.003878966319439736</v>
       </c>
       <c r="M28" t="n">
-        <v>6.453732243519302</v>
+        <v>6.43937045113017</v>
       </c>
       <c r="N28" t="n">
-        <v>78.201777055253</v>
+        <v>77.7766233439293</v>
       </c>
       <c r="O28" t="n">
-        <v>8.843176864410946</v>
+        <v>8.819105586391927</v>
       </c>
       <c r="P28" t="n">
-        <v>364.936712862178</v>
+        <v>364.8724689564592</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -26068,28 +26274,28 @@
         <v>0.0766</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.02596356136996314</v>
+        <v>-0.02356119170317862</v>
       </c>
       <c r="J29" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K29" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0004528145022216767</v>
+        <v>0.0003803017203709569</v>
       </c>
       <c r="M29" t="n">
-        <v>6.147350613957087</v>
+        <v>6.098103013640834</v>
       </c>
       <c r="N29" t="n">
-        <v>65.48065046987864</v>
+        <v>64.85629906471041</v>
       </c>
       <c r="O29" t="n">
-        <v>8.092011521857755</v>
+        <v>8.053340863561557</v>
       </c>
       <c r="P29" t="n">
-        <v>372.868150803898</v>
+        <v>372.8404584090119</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -26127,7 +26333,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD241"/>
+  <dimension ref="A1:AD243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58045,11 +58251,7 @@
           <t>2025-04-27 22:11:32+00:00</t>
         </is>
       </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>-35.631803221748456,174.5146483874853</t>
-        </is>
-      </c>
+      <c r="B241" t="inlineStr"/>
       <c r="C241" t="inlineStr">
         <is>
           <t>-35.632632843954276,174.5146845784361</t>
@@ -58188,6 +58390,302 @@
       <c r="AD241" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>-35.631847948938386,174.51475929802572</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>-35.632613787373735,174.5146373229846</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>-35.63326626787756,174.51423426439675</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>-35.63387767934762,174.51373226974837</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>-35.63442925654377,174.51315882494126</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>-35.63492654129689,174.51249983403085</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>-35.635457704989726,174.51188355705278</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>-35.63597421771807,174.51124755660277</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>-35.63653222056202,174.51066629382757</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>-35.63709987311031,174.51009860712267</t>
+        </is>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>-35.63768156602694,174.50954977648146</t>
+        </is>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>-35.63824937325447,174.5089883409832</t>
+        </is>
+      </c>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>-35.63882046790661,174.50848144633363</t>
+        </is>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>-35.6394243244891,174.5080194513534</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>-35.64003470470473,174.50751805779802</t>
+        </is>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>-35.640691273133626,174.5071203570411</t>
+        </is>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>-35.64131667601211,174.50665039851995</t>
+        </is>
+      </c>
+      <c r="S242" t="inlineStr">
+        <is>
+          <t>-35.64198249421476,174.50626827529288</t>
+        </is>
+      </c>
+      <c r="T242" t="inlineStr">
+        <is>
+          <t>-35.6425943584146,174.50577682846304</t>
+        </is>
+      </c>
+      <c r="U242" t="inlineStr">
+        <is>
+          <t>-35.64326280391042,174.50542794065655</t>
+        </is>
+      </c>
+      <c r="V242" t="inlineStr">
+        <is>
+          <t>-35.64389090790782,174.5050017923592</t>
+        </is>
+      </c>
+      <c r="W242" t="inlineStr">
+        <is>
+          <t>-35.64455904744932,174.50464720223272</t>
+        </is>
+      </c>
+      <c r="X242" t="inlineStr">
+        <is>
+          <t>-35.64521173691685,174.50428289064234</t>
+        </is>
+      </c>
+      <c r="Y242" t="inlineStr">
+        <is>
+          <t>-35.64587403817684,174.50394631902014</t>
+        </is>
+      </c>
+      <c r="Z242" t="inlineStr">
+        <is>
+          <t>-35.64655602362588,174.5036269000015</t>
+        </is>
+      </c>
+      <c r="AA242" t="inlineStr">
+        <is>
+          <t>-35.64723302349965,174.50328296749925</t>
+        </is>
+      </c>
+      <c r="AB242" t="inlineStr">
+        <is>
+          <t>-35.6478927998408,174.50287627269137</t>
+        </is>
+      </c>
+      <c r="AC242" t="inlineStr">
+        <is>
+          <t>-35.648621566026044,174.50281451212857</t>
+        </is>
+      </c>
+      <c r="AD242" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr"/>
+      <c r="C243" t="inlineStr"/>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>-35.63334599438949,174.51443196663823</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>-35.634043288418475,174.51405170972276</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>-35.63457655889201,174.51336745302694</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>-35.63508624675772,174.51270895296045</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>-35.635476077374484,174.51190761382682</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>-35.63596215595126,174.51123164117843</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>-35.63652984170362,174.5106631229281</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>-35.63708452247512,174.51007809509227</t>
+        </is>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>-35.637649341755775,174.50950671731428</t>
+        </is>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>-35.6382296173092,174.50896065547647</t>
+        </is>
+      </c>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>-35.6388253760241,174.50849044425044</t>
+        </is>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>-35.63949053122049,174.50817368156842</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>-35.640039403825874,174.5075290044863</t>
+        </is>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>-35.64067836915993,174.5070912428616</t>
+        </is>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>-35.641304176662196,174.50662379016563</t>
+        </is>
+      </c>
+      <c r="S243" t="inlineStr">
+        <is>
+          <t>-35.64194681936814,174.50619430579903</t>
+        </is>
+      </c>
+      <c r="T243" t="inlineStr">
+        <is>
+          <t>-35.64260687676589,174.5058027845079</t>
+        </is>
+      </c>
+      <c r="U243" t="inlineStr">
+        <is>
+          <t>-35.64323364292629,174.5053612608539</t>
+        </is>
+      </c>
+      <c r="V243" t="inlineStr">
+        <is>
+          <t>-35.643892477072185,174.505005891808</t>
+        </is>
+      </c>
+      <c r="W243" t="inlineStr">
+        <is>
+          <t>-35.644558072691666,174.50464457754353</t>
+        </is>
+      </c>
+      <c r="X243" t="inlineStr">
+        <is>
+          <t>-35.645220263236055,174.50430950478872</t>
+        </is>
+      </c>
+      <c r="Y243" t="inlineStr">
+        <is>
+          <t>-35.645861094001184,174.50389759189406</t>
+        </is>
+      </c>
+      <c r="Z243" t="inlineStr">
+        <is>
+          <t>-35.646575005024424,174.50369993080687</t>
+        </is>
+      </c>
+      <c r="AA243" t="inlineStr">
+        <is>
+          <t>-35.64722320450276,174.50324518903406</t>
+        </is>
+      </c>
+      <c r="AB243" t="inlineStr">
+        <is>
+          <t>-35.64791677375507,174.50299206446843</t>
+        </is>
+      </c>
+      <c r="AC243" t="inlineStr">
+        <is>
+          <t>-35.64861706833268,174.50278558716147</t>
+        </is>
+      </c>
+      <c r="AD243" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0094/nzd0094.xlsx
+++ b/data/nzd0094/nzd0094.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -27389,7 +27389,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>-35.63886263047299,174.50855874188466</t>
+          <t>-35.638862630473,174.50855874188466</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -33911,7 +33911,7 @@
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>-35.64272761206768,174.50605312288766</t>
+          <t>-35.642727612067674,174.50605312288766</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
@@ -39588,7 +39588,7 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>-35.645856909457336,174.5038818395936</t>
+          <t>-35.64585690945733,174.5038818395936</t>
         </is>
       </c>
       <c r="Z101" t="inlineStr">
@@ -42381,7 +42381,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>-35.63425559495576,174.51291286526723</t>
+          <t>-35.634255594955754,174.51291286526723</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -42824,7 +42824,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>-35.635808051349905,174.5110283018208</t>
+          <t>-35.6358080513499,174.5110283018208</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -46465,7 +46465,7 @@
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>-35.64394513967551,174.50514347340044</t>
+          <t>-35.643945139675516,174.50514347340044</t>
         </is>
       </c>
       <c r="W153" t="inlineStr">
@@ -55199,7 +55199,7 @@
       </c>
       <c r="X218" t="inlineStr">
         <is>
-          <t>-35.64517733151082,174.5041754974773</t>
+          <t>-35.645177331510816,174.5041754974773</t>
         </is>
       </c>
       <c r="Y218" t="inlineStr">

--- a/data/nzd0094/nzd0094.xlsx
+++ b/data/nzd0094/nzd0094.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD243"/>
+  <dimension ref="A1:AD244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21526,6 +21526,68 @@
         </is>
       </c>
     </row>
+    <row r="244">
+      <c r="A244" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr"/>
+      <c r="C244" t="inlineStr"/>
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="inlineStr"/>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="inlineStr"/>
+      <c r="O244" t="inlineStr"/>
+      <c r="P244" t="inlineStr"/>
+      <c r="Q244" t="inlineStr"/>
+      <c r="R244" t="n">
+        <v>358.87</v>
+      </c>
+      <c r="S244" t="n">
+        <v>361.2985714285714</v>
+      </c>
+      <c r="T244" t="n">
+        <v>373.45</v>
+      </c>
+      <c r="U244" t="n">
+        <v>382.11</v>
+      </c>
+      <c r="V244" t="n">
+        <v>390.72</v>
+      </c>
+      <c r="W244" t="n">
+        <v>405.8</v>
+      </c>
+      <c r="X244" t="n">
+        <v>405.18</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>403.68</v>
+      </c>
+      <c r="Z244" t="inlineStr"/>
+      <c r="AA244" t="n">
+        <v>383.5190909090909</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>378.96</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>387.9530769230769</v>
+      </c>
+      <c r="AD244" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21537,7 +21599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B245"/>
+  <dimension ref="A1:B246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23995,6 +24057,16 @@
       </c>
       <c r="B245" t="n">
         <v>-0.46</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>-0.72</v>
       </c>
     </row>
   </sheetData>
@@ -24171,7 +24243,7 @@
         <v>0.7506717552741373</v>
       </c>
       <c r="J2" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K2" t="n">
         <v>125</v>
@@ -24249,7 +24321,7 @@
         <v>0.2044942591141189</v>
       </c>
       <c r="J3" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K3" t="n">
         <v>146</v>
@@ -24327,7 +24399,7 @@
         <v>0.6341757481499816</v>
       </c>
       <c r="J4" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K4" t="n">
         <v>158</v>
@@ -24405,7 +24477,7 @@
         <v>0.7394755913086536</v>
       </c>
       <c r="J5" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K5" t="n">
         <v>172</v>
@@ -24483,7 +24555,7 @@
         <v>0.2752616298493956</v>
       </c>
       <c r="J6" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K6" t="n">
         <v>203</v>
@@ -24561,7 +24633,7 @@
         <v>0.161377269132867</v>
       </c>
       <c r="J7" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K7" t="n">
         <v>205</v>
@@ -24639,7 +24711,7 @@
         <v>0.1014347240681575</v>
       </c>
       <c r="J8" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K8" t="n">
         <v>205</v>
@@ -24717,7 +24789,7 @@
         <v>0.200499804951801</v>
       </c>
       <c r="J9" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K9" t="n">
         <v>211</v>
@@ -24795,7 +24867,7 @@
         <v>0.2445000459782293</v>
       </c>
       <c r="J10" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K10" t="n">
         <v>213</v>
@@ -24873,7 +24945,7 @@
         <v>0.2939049597930493</v>
       </c>
       <c r="J11" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K11" t="n">
         <v>210</v>
@@ -24951,7 +25023,7 @@
         <v>0.2588072173868404</v>
       </c>
       <c r="J12" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K12" t="n">
         <v>210</v>
@@ -25029,7 +25101,7 @@
         <v>0.2196349188467961</v>
       </c>
       <c r="J13" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K13" t="n">
         <v>210</v>
@@ -25107,7 +25179,7 @@
         <v>0.09234352396020852</v>
       </c>
       <c r="J14" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K14" t="n">
         <v>215</v>
@@ -25185,7 +25257,7 @@
         <v>0.07824560934455088</v>
       </c>
       <c r="J15" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K15" t="n">
         <v>208</v>
@@ -25263,7 +25335,7 @@
         <v>0.01137535213205946</v>
       </c>
       <c r="J16" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K16" t="n">
         <v>210</v>
@@ -25341,7 +25413,7 @@
         <v>-0.009515948348651796</v>
       </c>
       <c r="J17" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K17" t="n">
         <v>210</v>
@@ -25416,28 +25488,28 @@
         <v>0.041</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0590525948456214</v>
+        <v>0.04039653170202528</v>
       </c>
       <c r="J18" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K18" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001258704930990562</v>
+        <v>0.0005872591667516192</v>
       </c>
       <c r="M18" t="n">
-        <v>8.938757164054522</v>
+        <v>8.998622117195485</v>
       </c>
       <c r="N18" t="n">
-        <v>125.6901791369163</v>
+        <v>126.7557289142483</v>
       </c>
       <c r="O18" t="n">
-        <v>11.21116314826059</v>
+        <v>11.25858467633691</v>
       </c>
       <c r="P18" t="n">
-        <v>376.2090710907112</v>
+        <v>376.4212574401043</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -25494,28 +25566,28 @@
         <v>0.0406</v>
       </c>
       <c r="I19" t="n">
-        <v>0.08758769649108797</v>
+        <v>0.06629205587808785</v>
       </c>
       <c r="J19" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K19" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002291942986710649</v>
+        <v>0.001308817272956175</v>
       </c>
       <c r="M19" t="n">
-        <v>9.809351782188235</v>
+        <v>9.866629581169317</v>
       </c>
       <c r="N19" t="n">
-        <v>149.6193662653299</v>
+        <v>151.0019464000028</v>
       </c>
       <c r="O19" t="n">
-        <v>12.23189953626704</v>
+        <v>12.28828492508221</v>
       </c>
       <c r="P19" t="n">
-        <v>380.3079434254699</v>
+        <v>380.5501630992999</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -25572,28 +25644,28 @@
         <v>0.0415</v>
       </c>
       <c r="I20" t="n">
-        <v>0.09053738767228241</v>
+        <v>0.07697482385524752</v>
       </c>
       <c r="J20" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K20" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L20" t="n">
-        <v>0.003044933843413977</v>
+        <v>0.00220845773183842</v>
       </c>
       <c r="M20" t="n">
-        <v>8.443449892669829</v>
+        <v>8.458337809944716</v>
       </c>
       <c r="N20" t="n">
-        <v>117.6055138548823</v>
+        <v>117.8986568663016</v>
       </c>
       <c r="O20" t="n">
-        <v>10.84460759340246</v>
+        <v>10.85811479338387</v>
       </c>
       <c r="P20" t="n">
-        <v>384.6820333730163</v>
+        <v>384.8383432626962</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -25650,28 +25722,28 @@
         <v>0.0411</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1802991585465374</v>
+        <v>0.1693065243023225</v>
       </c>
       <c r="J21" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K21" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01203759465160392</v>
+        <v>0.01067691786899461</v>
       </c>
       <c r="M21" t="n">
-        <v>8.394183584280746</v>
+        <v>8.405509345658551</v>
       </c>
       <c r="N21" t="n">
-        <v>117.3964052493283</v>
+        <v>117.4366930576573</v>
       </c>
       <c r="O21" t="n">
-        <v>10.8349621711074</v>
+        <v>10.83682116940467</v>
       </c>
       <c r="P21" t="n">
-        <v>388.7960345032771</v>
+        <v>388.9226789915833</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -25728,28 +25800,28 @@
         <v>0.0445</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1060957953694192</v>
+        <v>0.106037970657922</v>
       </c>
       <c r="J22" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K22" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L22" t="n">
-        <v>0.004747738308617855</v>
+        <v>0.004786989214471959</v>
       </c>
       <c r="M22" t="n">
-        <v>8.211859744268542</v>
+        <v>8.174968690369589</v>
       </c>
       <c r="N22" t="n">
-        <v>107.3950435399998</v>
+        <v>106.9091093724019</v>
       </c>
       <c r="O22" t="n">
-        <v>10.36315799068989</v>
+        <v>10.3396861351011</v>
       </c>
       <c r="P22" t="n">
-        <v>388.0545431391085</v>
+        <v>388.055195730097</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -25806,28 +25878,28 @@
         <v>0.047</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1021714788970606</v>
+        <v>0.1181591439701397</v>
       </c>
       <c r="J23" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K23" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L23" t="n">
-        <v>0.004651240676248891</v>
+        <v>0.006195450112522205</v>
       </c>
       <c r="M23" t="n">
-        <v>7.870702110832791</v>
+        <v>7.906962874023668</v>
       </c>
       <c r="N23" t="n">
-        <v>102.0042093299052</v>
+        <v>102.7604879224401</v>
       </c>
       <c r="O23" t="n">
-        <v>10.0997133290953</v>
+        <v>10.13708478421879</v>
       </c>
       <c r="P23" t="n">
-        <v>386.7695332810203</v>
+        <v>386.5891477479455</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -25884,28 +25956,28 @@
         <v>0.0484</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1314168701381938</v>
+        <v>0.1477504732435173</v>
       </c>
       <c r="J24" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K24" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L24" t="n">
-        <v>0.007096231542828124</v>
+        <v>0.008942022417988249</v>
       </c>
       <c r="M24" t="n">
-        <v>8.252767089842026</v>
+        <v>8.278656609601304</v>
       </c>
       <c r="N24" t="n">
-        <v>109.0835062900206</v>
+        <v>109.7855544135382</v>
       </c>
       <c r="O24" t="n">
-        <v>10.44430496921746</v>
+        <v>10.47786020204212</v>
       </c>
       <c r="P24" t="n">
-        <v>385.6259187346244</v>
+        <v>385.441223735552</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -25962,28 +26034,28 @@
         <v>0.0518</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1553354764188143</v>
+        <v>0.1777436121927359</v>
       </c>
       <c r="J25" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K25" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01301255200098828</v>
+        <v>0.0166932757263436</v>
       </c>
       <c r="M25" t="n">
-        <v>7.025679308713617</v>
+        <v>7.083368973994098</v>
       </c>
       <c r="N25" t="n">
-        <v>82.74043438647853</v>
+        <v>84.58331300083535</v>
       </c>
       <c r="O25" t="n">
-        <v>9.096176910465106</v>
+        <v>9.196918668817037</v>
       </c>
       <c r="P25" t="n">
-        <v>377.8959030659703</v>
+        <v>377.6433368802419</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -26043,7 +26115,7 @@
         <v>0.05645332032847861</v>
       </c>
       <c r="J26" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K26" t="n">
         <v>196</v>
@@ -26118,28 +26190,28 @@
         <v>0.0617</v>
       </c>
       <c r="I27" t="n">
-        <v>0.09581807746120327</v>
+        <v>0.1087529061985815</v>
       </c>
       <c r="J27" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K27" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L27" t="n">
-        <v>0.005678184793569407</v>
+        <v>0.007297252220775707</v>
       </c>
       <c r="M27" t="n">
-        <v>6.433840161489214</v>
+        <v>6.454283327858601</v>
       </c>
       <c r="N27" t="n">
-        <v>72.87295444901972</v>
+        <v>73.29773511501011</v>
       </c>
       <c r="O27" t="n">
-        <v>8.53656572920397</v>
+        <v>8.561409645321856</v>
       </c>
       <c r="P27" t="n">
-        <v>368.2331118267525</v>
+        <v>368.0866706804595</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -26196,28 +26268,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>0.08200987418271596</v>
+        <v>0.09482811361044047</v>
       </c>
       <c r="J28" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K28" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L28" t="n">
-        <v>0.003878966319439736</v>
+        <v>0.005186665442419192</v>
       </c>
       <c r="M28" t="n">
-        <v>6.43937045113017</v>
+        <v>6.462409325943854</v>
       </c>
       <c r="N28" t="n">
-        <v>77.7766233439293</v>
+        <v>78.09437828646503</v>
       </c>
       <c r="O28" t="n">
-        <v>8.819105586391927</v>
+        <v>8.837102369355298</v>
       </c>
       <c r="P28" t="n">
-        <v>364.8724689564592</v>
+        <v>364.7272401390615</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -26274,28 +26346,28 @@
         <v>0.0766</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.02356119170317862</v>
+        <v>-0.007177843180121595</v>
       </c>
       <c r="J29" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K29" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0003803017203709569</v>
+        <v>3.500060685124318e-05</v>
       </c>
       <c r="M29" t="n">
-        <v>6.098103013640834</v>
+        <v>6.140583612583788</v>
       </c>
       <c r="N29" t="n">
-        <v>64.85629906471041</v>
+        <v>65.74465178352192</v>
       </c>
       <c r="O29" t="n">
-        <v>8.053340863561557</v>
+        <v>8.108307578250958</v>
       </c>
       <c r="P29" t="n">
-        <v>372.8404584090119</v>
+        <v>372.6510456921241</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -26333,7 +26405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD243"/>
+  <dimension ref="A1:AD244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58689,6 +58761,90 @@
         </is>
       </c>
     </row>
+    <row r="244">
+      <c r="A244" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr"/>
+      <c r="C244" t="inlineStr"/>
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="inlineStr"/>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="inlineStr"/>
+      <c r="O244" t="inlineStr"/>
+      <c r="P244" t="inlineStr"/>
+      <c r="Q244" t="inlineStr"/>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>-35.64125485362828,174.50651879253056</t>
+        </is>
+      </c>
+      <c r="S244" t="inlineStr">
+        <is>
+          <t>-35.64189028715121,174.50607709022606</t>
+        </is>
+      </c>
+      <c r="T244" t="inlineStr">
+        <is>
+          <t>-35.642570559774704,174.5057274834767</t>
+        </is>
+      </c>
+      <c r="U244" t="inlineStr">
+        <is>
+          <t>-35.643228151291424,174.5053487036409</t>
+        </is>
+      </c>
+      <c r="V244" t="inlineStr">
+        <is>
+          <t>-35.643905757555004,174.50504058714935</t>
+        </is>
+      </c>
+      <c r="W244" t="inlineStr">
+        <is>
+          <t>-35.644620610534204,174.50481297102598</t>
+        </is>
+      </c>
+      <c r="X244" t="inlineStr">
+        <is>
+          <t>-35.64526058203208,174.50443535665033</t>
+        </is>
+      </c>
+      <c r="Y244" t="inlineStr">
+        <is>
+          <t>-35.64592453142826,174.50413639696205</t>
+        </is>
+      </c>
+      <c r="Z244" t="inlineStr"/>
+      <c r="AA244" t="inlineStr">
+        <is>
+          <t>-35.64725362619729,174.50336223629546</t>
+        </is>
+      </c>
+      <c r="AB244" t="inlineStr">
+        <is>
+          <t>-35.647925720539696,174.50303527676317</t>
+        </is>
+      </c>
+      <c r="AC244" t="inlineStr">
+        <is>
+          <t>-35.64864395836132,174.50295851945313</t>
+        </is>
+      </c>
+      <c r="AD244" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0094/nzd0094.xlsx
+++ b/data/nzd0094/nzd0094.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD244"/>
+  <dimension ref="A1:AD246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21588,6 +21588,198 @@
         </is>
       </c>
     </row>
+    <row r="245">
+      <c r="A245" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>368.2966666666667</v>
+      </c>
+      <c r="C245" t="n">
+        <v>367.6533333333333</v>
+      </c>
+      <c r="D245" t="n">
+        <v>365.88</v>
+      </c>
+      <c r="E245" t="n">
+        <v>365.67</v>
+      </c>
+      <c r="F245" t="n">
+        <v>372.97</v>
+      </c>
+      <c r="G245" t="n">
+        <v>366.4033333333333</v>
+      </c>
+      <c r="H245" t="n">
+        <v>365.0633333333333</v>
+      </c>
+      <c r="I245" t="n">
+        <v>360.2533333333333</v>
+      </c>
+      <c r="J245" t="n">
+        <v>360.15</v>
+      </c>
+      <c r="K245" t="n">
+        <v>369.34</v>
+      </c>
+      <c r="L245" t="n">
+        <v>374.58</v>
+      </c>
+      <c r="M245" t="n">
+        <v>385.98</v>
+      </c>
+      <c r="N245" t="n">
+        <v>387.82</v>
+      </c>
+      <c r="O245" t="n">
+        <v>382.94</v>
+      </c>
+      <c r="P245" t="n">
+        <v>377.3</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>377.76</v>
+      </c>
+      <c r="R245" t="n">
+        <v>377.35</v>
+      </c>
+      <c r="S245" t="n">
+        <v>387.64</v>
+      </c>
+      <c r="T245" t="n">
+        <v>385.13</v>
+      </c>
+      <c r="U245" t="n">
+        <v>395.14</v>
+      </c>
+      <c r="V245" t="n">
+        <v>395.04</v>
+      </c>
+      <c r="W245" t="n">
+        <v>394.0088888888889</v>
+      </c>
+      <c r="X245" t="n">
+        <v>394.6988888888889</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>388.83</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>386.58</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>376.6590909090909</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>368.8466666666667</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>379.3184615384615</v>
+      </c>
+      <c r="AD245" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>358.4433333333333</v>
+      </c>
+      <c r="C246" t="n">
+        <v>355.4466666666667</v>
+      </c>
+      <c r="D246" t="n">
+        <v>351.8885714285714</v>
+      </c>
+      <c r="E246" t="n">
+        <v>373.2485714285714</v>
+      </c>
+      <c r="F246" t="n">
+        <v>372.04</v>
+      </c>
+      <c r="G246" t="n">
+        <v>364.2766666666667</v>
+      </c>
+      <c r="H246" t="n">
+        <v>358.5266666666667</v>
+      </c>
+      <c r="I246" t="n">
+        <v>352.6266666666667</v>
+      </c>
+      <c r="J246" t="n">
+        <v>356.9485714285714</v>
+      </c>
+      <c r="K246" t="n">
+        <v>361.7385714285714</v>
+      </c>
+      <c r="L246" t="n">
+        <v>371.0085714285714</v>
+      </c>
+      <c r="M246" t="n">
+        <v>381.9985714285714</v>
+      </c>
+      <c r="N246" t="n">
+        <v>385.1785714285714</v>
+      </c>
+      <c r="O246" t="n">
+        <v>374.69</v>
+      </c>
+      <c r="P246" t="n">
+        <v>369.3785714285714</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>376.4985714285714</v>
+      </c>
+      <c r="R246" t="n">
+        <v>375.98</v>
+      </c>
+      <c r="S246" t="n">
+        <v>386.5485714285714</v>
+      </c>
+      <c r="T246" t="n">
+        <v>385</v>
+      </c>
+      <c r="U246" t="n">
+        <v>397.96</v>
+      </c>
+      <c r="V246" t="n">
+        <v>391.91</v>
+      </c>
+      <c r="W246" t="n">
+        <v>395.6844444444445</v>
+      </c>
+      <c r="X246" t="n">
+        <v>394.7844444444444</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>390.06</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>385.9385714285714</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>377.7454545454545</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>369.5633333333333</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>378.4407692307692</v>
+      </c>
+      <c r="AD246" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21599,7 +21791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B246"/>
+  <dimension ref="A1:B248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24067,6 +24259,26 @@
       </c>
       <c r="B246" t="n">
         <v>-0.72</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
@@ -24240,28 +24452,28 @@
         <v>0.0165</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7506717552741373</v>
+        <v>0.7307939935116009</v>
       </c>
       <c r="J2" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K2" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0166564842621667</v>
+        <v>0.01621120622791805</v>
       </c>
       <c r="M2" t="n">
-        <v>27.6075616178289</v>
+        <v>27.26626793162688</v>
       </c>
       <c r="N2" t="n">
-        <v>1510.224012079585</v>
+        <v>1487.490089730535</v>
       </c>
       <c r="O2" t="n">
-        <v>38.86160074005683</v>
+        <v>38.56799307366843</v>
       </c>
       <c r="P2" t="n">
-        <v>350.653534057616</v>
+        <v>350.8882584828268</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24318,28 +24530,28 @@
         <v>0.0438</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2044942591141189</v>
+        <v>0.1816538595610257</v>
       </c>
       <c r="J3" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K3" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002485981328431808</v>
+        <v>0.002006430113848712</v>
       </c>
       <c r="M3" t="n">
-        <v>20.79042643543409</v>
+        <v>20.61883450498057</v>
       </c>
       <c r="N3" t="n">
-        <v>780.0673883416049</v>
+        <v>771.033799062776</v>
       </c>
       <c r="O3" t="n">
-        <v>27.92968650632522</v>
+        <v>27.76749536891608</v>
       </c>
       <c r="P3" t="n">
-        <v>365.0607157662772</v>
+        <v>365.324706513702</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24396,28 +24608,28 @@
         <v>0.0513</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6341757481499816</v>
+        <v>0.5966789811787419</v>
       </c>
       <c r="J4" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K4" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03778450159800029</v>
+        <v>0.03410573184083543</v>
       </c>
       <c r="M4" t="n">
-        <v>18.28234819002049</v>
+        <v>18.23426195147679</v>
       </c>
       <c r="N4" t="n">
-        <v>461.8769666311013</v>
+        <v>459.4663263145914</v>
       </c>
       <c r="O4" t="n">
-        <v>21.49132305445854</v>
+        <v>21.43516564700612</v>
       </c>
       <c r="P4" t="n">
-        <v>357.6306890533291</v>
+        <v>358.0694782890865</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24474,28 +24686,28 @@
         <v>0.0419</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7394755913086536</v>
+        <v>0.7398612827116032</v>
       </c>
       <c r="J5" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K5" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04489841366462011</v>
+        <v>0.04592909489833819</v>
       </c>
       <c r="M5" t="n">
-        <v>17.91171312242457</v>
+        <v>17.74967982812954</v>
       </c>
       <c r="N5" t="n">
-        <v>500.106785847539</v>
+        <v>494.5223125357628</v>
       </c>
       <c r="O5" t="n">
-        <v>22.36306745166099</v>
+        <v>22.23785764267239</v>
       </c>
       <c r="P5" t="n">
-        <v>350.2468197266818</v>
+        <v>350.2421520098457</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24552,28 +24764,28 @@
         <v>0.0259</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2752616298493956</v>
+        <v>0.2942164237917528</v>
       </c>
       <c r="J6" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K6" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009423922843936006</v>
+        <v>0.01094946559721033</v>
       </c>
       <c r="M6" t="n">
-        <v>14.81876537388741</v>
+        <v>14.76895559966519</v>
       </c>
       <c r="N6" t="n">
-        <v>347.7173078645797</v>
+        <v>345.0887926010661</v>
       </c>
       <c r="O6" t="n">
-        <v>18.64717962225333</v>
+        <v>18.57656568370661</v>
       </c>
       <c r="P6" t="n">
-        <v>356.4376256347018</v>
+        <v>356.2176924689749</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24630,28 +24842,28 @@
         <v>0.032</v>
       </c>
       <c r="I7" t="n">
-        <v>0.161377269132867</v>
+        <v>0.1759842167236009</v>
       </c>
       <c r="J7" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K7" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004305435905207156</v>
+        <v>0.005215254548102122</v>
       </c>
       <c r="M7" t="n">
-        <v>13.10298629665158</v>
+        <v>13.0401856499441</v>
       </c>
       <c r="N7" t="n">
-        <v>268.0566453525645</v>
+        <v>265.9292015963211</v>
       </c>
       <c r="O7" t="n">
-        <v>16.37243553514762</v>
+        <v>16.30733582153508</v>
       </c>
       <c r="P7" t="n">
-        <v>354.2380235920211</v>
+        <v>354.0717857228389</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24708,28 +24920,28 @@
         <v>0.032</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1014347240681575</v>
+        <v>0.1117851719744226</v>
       </c>
       <c r="J8" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K8" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002095180692989307</v>
+        <v>0.002592719285873679</v>
       </c>
       <c r="M8" t="n">
-        <v>11.95012346291919</v>
+        <v>11.87109753535788</v>
       </c>
       <c r="N8" t="n">
-        <v>217.1850095330738</v>
+        <v>215.4192387094035</v>
       </c>
       <c r="O8" t="n">
-        <v>14.73719815748821</v>
+        <v>14.67716725766261</v>
       </c>
       <c r="P8" t="n">
-        <v>354.2338972353509</v>
+        <v>354.1154648877209</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24786,28 +24998,28 @@
         <v>0.0357</v>
       </c>
       <c r="I9" t="n">
-        <v>0.200499804951801</v>
+        <v>0.1960249961184994</v>
       </c>
       <c r="J9" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K9" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01013868774226789</v>
+        <v>0.009879991545741373</v>
       </c>
       <c r="M9" t="n">
-        <v>10.30952287081098</v>
+        <v>10.24964887270096</v>
       </c>
       <c r="N9" t="n">
-        <v>174.1617298826868</v>
+        <v>172.7071844687143</v>
       </c>
       <c r="O9" t="n">
-        <v>13.19703488980334</v>
+        <v>13.14181054758873</v>
       </c>
       <c r="P9" t="n">
-        <v>353.4663046195366</v>
+        <v>353.5176514131867</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24864,28 +25076,28 @@
         <v>0.0377</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2445000459782293</v>
+        <v>0.2398316051998296</v>
       </c>
       <c r="J10" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K10" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01780768037316716</v>
+        <v>0.01746669593762051</v>
       </c>
       <c r="M10" t="n">
-        <v>9.616615095914398</v>
+        <v>9.548893937885001</v>
       </c>
       <c r="N10" t="n">
-        <v>150.1584056873458</v>
+        <v>148.8366496134667</v>
       </c>
       <c r="O10" t="n">
-        <v>12.25391389260369</v>
+        <v>12.19986268830378</v>
       </c>
       <c r="P10" t="n">
-        <v>354.6232506718766</v>
+        <v>354.6762192430323</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24942,28 +25154,28 @@
         <v>0.0404</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2939049597930493</v>
+        <v>0.2947303696325388</v>
       </c>
       <c r="J11" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K11" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02578573714563637</v>
+        <v>0.02641075712961838</v>
       </c>
       <c r="M11" t="n">
-        <v>9.406209174633084</v>
+        <v>9.353623433878466</v>
       </c>
       <c r="N11" t="n">
-        <v>147.2917161132955</v>
+        <v>146.0405213162722</v>
       </c>
       <c r="O11" t="n">
-        <v>12.13637986029176</v>
+        <v>12.08472264126373</v>
       </c>
       <c r="P11" t="n">
-        <v>357.5434687323544</v>
+        <v>357.5341671481167</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -25020,28 +25232,28 @@
         <v>0.0403</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2588072173868404</v>
+        <v>0.2637751837737137</v>
       </c>
       <c r="J12" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K12" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02333277774387987</v>
+        <v>0.02467211848896189</v>
       </c>
       <c r="M12" t="n">
-        <v>8.754361922331071</v>
+        <v>8.695135497307808</v>
       </c>
       <c r="N12" t="n">
-        <v>125.2562495900615</v>
+        <v>124.1606124794953</v>
       </c>
       <c r="O12" t="n">
-        <v>11.19179385040939</v>
+        <v>11.14273810512906</v>
       </c>
       <c r="P12" t="n">
-        <v>363.6555253939916</v>
+        <v>363.5986779220277</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -25098,28 +25310,28 @@
         <v>0.037</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2196349188467961</v>
+        <v>0.2316596782493563</v>
       </c>
       <c r="J13" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K13" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01710936874193059</v>
+        <v>0.01932038273158987</v>
       </c>
       <c r="M13" t="n">
-        <v>8.985830822277345</v>
+        <v>8.955906462263899</v>
       </c>
       <c r="N13" t="n">
-        <v>123.278718739917</v>
+        <v>122.4738239573153</v>
       </c>
       <c r="O13" t="n">
-        <v>11.10309500724537</v>
+        <v>11.06678923434053</v>
       </c>
       <c r="P13" t="n">
-        <v>372.4113564034383</v>
+        <v>372.273747508482</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -25176,28 +25388,28 @@
         <v>0.0357</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09234352396020852</v>
+        <v>0.09419046814214421</v>
       </c>
       <c r="J14" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K14" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003323568714767022</v>
+        <v>0.003523655319331187</v>
       </c>
       <c r="M14" t="n">
-        <v>8.539625722091106</v>
+        <v>8.472776596600061</v>
       </c>
       <c r="N14" t="n">
-        <v>114.1101261956296</v>
+        <v>113.0825008924276</v>
       </c>
       <c r="O14" t="n">
-        <v>10.68223413877591</v>
+        <v>10.63402562026383</v>
       </c>
       <c r="P14" t="n">
-        <v>383.1763612044407</v>
+        <v>383.1551922328034</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -25254,28 +25466,28 @@
         <v>0.0408</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07824560934455088</v>
+        <v>0.07586745052400735</v>
       </c>
       <c r="J15" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K15" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002250287290191499</v>
+        <v>0.002154826869508408</v>
       </c>
       <c r="M15" t="n">
-        <v>8.724735276954988</v>
+        <v>8.680652210231134</v>
       </c>
       <c r="N15" t="n">
-        <v>119.8355747862345</v>
+        <v>118.8689042344764</v>
       </c>
       <c r="O15" t="n">
-        <v>10.94694362761746</v>
+        <v>10.90270169428094</v>
       </c>
       <c r="P15" t="n">
-        <v>377.9574670673435</v>
+        <v>377.9850781044406</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -25332,28 +25544,28 @@
         <v>0.0364</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01137535213205946</v>
+        <v>0.001141155113573835</v>
       </c>
       <c r="J16" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K16" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L16" t="n">
-        <v>4.249854829163624e-05</v>
+        <v>4.346616763184485e-07</v>
       </c>
       <c r="M16" t="n">
-        <v>9.274637965736046</v>
+        <v>9.236168721028974</v>
       </c>
       <c r="N16" t="n">
-        <v>133.5903469267839</v>
+        <v>132.7184675195854</v>
       </c>
       <c r="O16" t="n">
-        <v>11.55812904092976</v>
+        <v>11.52035014743846</v>
       </c>
       <c r="P16" t="n">
-        <v>378.1666867381463</v>
+        <v>378.2863391072524</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -25410,28 +25622,28 @@
         <v>0.0407</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.009515948348651796</v>
+        <v>-0.008368854455052661</v>
       </c>
       <c r="J17" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K17" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L17" t="n">
-        <v>3.096715831718555e-05</v>
+        <v>2.44028678135777e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>9.185343901003542</v>
+        <v>9.104846851679275</v>
       </c>
       <c r="N17" t="n">
-        <v>131.8131952994421</v>
+        <v>130.5766085139318</v>
       </c>
       <c r="O17" t="n">
-        <v>11.48099278370308</v>
+        <v>11.42701223040966</v>
       </c>
       <c r="P17" t="n">
-        <v>376.7854693523709</v>
+        <v>376.7722539454476</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -25488,28 +25700,28 @@
         <v>0.041</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04039653170202528</v>
+        <v>0.03884497827569864</v>
       </c>
       <c r="J18" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K18" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0005872591667516192</v>
+        <v>0.000553317562860034</v>
       </c>
       <c r="M18" t="n">
-        <v>8.998622117195485</v>
+        <v>8.922643515487055</v>
       </c>
       <c r="N18" t="n">
-        <v>126.7557289142483</v>
+        <v>125.5757588696561</v>
       </c>
       <c r="O18" t="n">
-        <v>11.25858467633691</v>
+        <v>11.20605902490506</v>
       </c>
       <c r="P18" t="n">
-        <v>376.4212574401043</v>
+        <v>376.4389866913614</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -25566,28 +25778,28 @@
         <v>0.0406</v>
       </c>
       <c r="I19" t="n">
-        <v>0.06629205587808785</v>
+        <v>0.07578835958260909</v>
       </c>
       <c r="J19" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K19" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001308817272956175</v>
+        <v>0.001740787843091396</v>
       </c>
       <c r="M19" t="n">
-        <v>9.866629581169317</v>
+        <v>9.816987712433978</v>
       </c>
       <c r="N19" t="n">
-        <v>151.0019464000028</v>
+        <v>149.8169145956137</v>
       </c>
       <c r="O19" t="n">
-        <v>12.28828492508221</v>
+        <v>12.23997200142278</v>
       </c>
       <c r="P19" t="n">
-        <v>380.5501630992999</v>
+        <v>380.4417638184865</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -25644,28 +25856,28 @@
         <v>0.0415</v>
       </c>
       <c r="I20" t="n">
-        <v>0.07697482385524752</v>
+        <v>0.07352469134290142</v>
       </c>
       <c r="J20" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K20" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00220845773183842</v>
+        <v>0.002053646869879522</v>
       </c>
       <c r="M20" t="n">
-        <v>8.458337809944716</v>
+        <v>8.394554704540237</v>
       </c>
       <c r="N20" t="n">
-        <v>117.8986568663016</v>
+        <v>116.8494257157607</v>
       </c>
       <c r="O20" t="n">
-        <v>10.85811479338387</v>
+        <v>10.80969128679264</v>
       </c>
       <c r="P20" t="n">
-        <v>384.8383432626962</v>
+        <v>384.8782521090127</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -25722,28 +25934,28 @@
         <v>0.0411</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1693065243023225</v>
+        <v>0.1755351046459842</v>
       </c>
       <c r="J21" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K21" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01067691786899461</v>
+        <v>0.01166870949962684</v>
       </c>
       <c r="M21" t="n">
-        <v>8.405509345658551</v>
+        <v>8.359782667184813</v>
       </c>
       <c r="N21" t="n">
-        <v>117.4366930576573</v>
+        <v>116.4982729705004</v>
       </c>
       <c r="O21" t="n">
-        <v>10.83682116940467</v>
+        <v>10.79343656906828</v>
       </c>
       <c r="P21" t="n">
-        <v>388.9226789915833</v>
+        <v>388.8506285476867</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -25800,28 +26012,28 @@
         <v>0.0445</v>
       </c>
       <c r="I22" t="n">
-        <v>0.106037970657922</v>
+        <v>0.1110838039488362</v>
       </c>
       <c r="J22" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K22" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L22" t="n">
-        <v>0.004786989214471959</v>
+        <v>0.005344480579354549</v>
       </c>
       <c r="M22" t="n">
-        <v>8.174968690369589</v>
+        <v>8.12586677127214</v>
       </c>
       <c r="N22" t="n">
-        <v>106.9091093724019</v>
+        <v>106.0352726374315</v>
       </c>
       <c r="O22" t="n">
-        <v>10.3396861351011</v>
+        <v>10.29734298920996</v>
       </c>
       <c r="P22" t="n">
-        <v>388.055195730097</v>
+        <v>387.9980682048094</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -25878,28 +26090,28 @@
         <v>0.047</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1181591439701397</v>
+        <v>0.1281289850157031</v>
       </c>
       <c r="J23" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K23" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L23" t="n">
-        <v>0.006195450112522205</v>
+        <v>0.007396383556965813</v>
       </c>
       <c r="M23" t="n">
-        <v>7.906962874023668</v>
+        <v>7.879661906680946</v>
       </c>
       <c r="N23" t="n">
-        <v>102.7604879224401</v>
+        <v>102.0664044370705</v>
       </c>
       <c r="O23" t="n">
-        <v>10.13708478421879</v>
+        <v>10.10279191298477</v>
       </c>
       <c r="P23" t="n">
-        <v>386.5891477479455</v>
+        <v>386.476216951421</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -25956,28 +26168,28 @@
         <v>0.0484</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1477504732435173</v>
+        <v>0.1586199231380858</v>
       </c>
       <c r="J24" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K24" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L24" t="n">
-        <v>0.008942022417988249</v>
+        <v>0.01046741326146605</v>
       </c>
       <c r="M24" t="n">
-        <v>8.278656609601304</v>
+        <v>8.246017659318779</v>
       </c>
       <c r="N24" t="n">
-        <v>109.7855544135382</v>
+        <v>109.0333224991056</v>
       </c>
       <c r="O24" t="n">
-        <v>10.47786020204212</v>
+        <v>10.44190224523796</v>
       </c>
       <c r="P24" t="n">
-        <v>385.441223735552</v>
+        <v>385.3178607652673</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -26034,28 +26246,28 @@
         <v>0.0518</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1777436121927359</v>
+        <v>0.1922894148054051</v>
       </c>
       <c r="J25" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K25" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0166932757263436</v>
+        <v>0.01975695733920357</v>
       </c>
       <c r="M25" t="n">
-        <v>7.083368973994098</v>
+        <v>7.074329337760801</v>
       </c>
       <c r="N25" t="n">
-        <v>84.58331300083535</v>
+        <v>84.26475405456237</v>
       </c>
       <c r="O25" t="n">
-        <v>9.196918668817037</v>
+        <v>9.179583544723714</v>
       </c>
       <c r="P25" t="n">
-        <v>377.6433368802419</v>
+        <v>377.4787737556263</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -26112,28 +26324,28 @@
         <v>0.0363</v>
       </c>
       <c r="I26" t="n">
-        <v>0.05645332032847861</v>
+        <v>0.05557015973163566</v>
       </c>
       <c r="J26" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K26" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L26" t="n">
-        <v>0.00122235545552718</v>
+        <v>0.001209651789244925</v>
       </c>
       <c r="M26" t="n">
-        <v>8.10042047819795</v>
+        <v>8.023134478978609</v>
       </c>
       <c r="N26" t="n">
-        <v>115.3236665172795</v>
+        <v>114.1614597309982</v>
       </c>
       <c r="O26" t="n">
-        <v>10.73888572046837</v>
+        <v>10.68463662138298</v>
       </c>
       <c r="P26" t="n">
-        <v>385.2122102431285</v>
+        <v>385.2224009078154</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -26190,28 +26402,28 @@
         <v>0.0617</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1087529061985815</v>
+        <v>0.1212375342041149</v>
       </c>
       <c r="J27" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K27" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L27" t="n">
-        <v>0.007297252220775707</v>
+        <v>0.00918279918924636</v>
       </c>
       <c r="M27" t="n">
-        <v>6.454283327858601</v>
+        <v>6.443410834134207</v>
       </c>
       <c r="N27" t="n">
-        <v>73.29773511501011</v>
+        <v>72.97414967140986</v>
       </c>
       <c r="O27" t="n">
-        <v>8.561409645321856</v>
+        <v>8.542490835313192</v>
       </c>
       <c r="P27" t="n">
-        <v>368.0866706804595</v>
+        <v>367.9447845332012</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -26268,28 +26480,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>0.09482811361044047</v>
+        <v>0.09908727293155677</v>
       </c>
       <c r="J28" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K28" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L28" t="n">
-        <v>0.005186665442419192</v>
+        <v>0.005774925058092295</v>
       </c>
       <c r="M28" t="n">
-        <v>6.462409325943854</v>
+        <v>6.416882405463311</v>
       </c>
       <c r="N28" t="n">
-        <v>78.09437828646503</v>
+        <v>77.36211464266266</v>
       </c>
       <c r="O28" t="n">
-        <v>8.837102369355298</v>
+        <v>8.795573582357358</v>
       </c>
       <c r="P28" t="n">
-        <v>364.7272401390615</v>
+        <v>364.6787981261996</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -26346,28 +26558,28 @@
         <v>0.0766</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.007177843180121595</v>
+        <v>0.005924638884844878</v>
       </c>
       <c r="J29" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K29" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L29" t="n">
-        <v>3.500060685124318e-05</v>
+        <v>2.416848409392269e-05</v>
       </c>
       <c r="M29" t="n">
-        <v>6.140583612583788</v>
+        <v>6.141956729487911</v>
       </c>
       <c r="N29" t="n">
-        <v>65.74465178352192</v>
+        <v>65.49234801272185</v>
       </c>
       <c r="O29" t="n">
-        <v>8.108307578250958</v>
+        <v>8.092734272958792</v>
       </c>
       <c r="P29" t="n">
-        <v>372.6510456921241</v>
+        <v>372.4989940747477</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -26405,7 +26617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD244"/>
+  <dimension ref="A1:AD246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58845,6 +59057,310 @@
         </is>
       </c>
     </row>
+    <row r="245">
+      <c r="A245" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>-35.63195262691808,174.51501887074156</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>-35.63260121161702,174.51460613835857</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>-35.633245279656435,174.51418221894596</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>-35.63389881113914,174.5137730302647</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>-35.63450715346988,174.5132691521886</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>-35.634997546638985,174.51259280852693</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>-35.63551707138101,174.51196129138353</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>-35.63601524815213,174.51130169605668</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>-35.63654626715264,174.51068501723788</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>-35.63713509949717,174.51014567784333</t>
+        </is>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>-35.637699858057985,174.50957421894063</t>
+        </is>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>-35.638298216431174,174.50905678873573</t>
+        </is>
+      </c>
+      <c r="N245" t="inlineStr">
+        <is>
+          <t>-35.63883791103811,174.50851342435774</t>
+        </is>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>-35.63943879936229,174.5080531708658</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>-35.64005766685451,174.50757154857885</t>
+        </is>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>-35.64070380227064,174.50714862553173</t>
+        </is>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>-35.641337942877605,174.5066956710264</t>
+        </is>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>-35.64201107467199,174.50632753514526</t>
+        </is>
+      </c>
+      <c r="T245" t="inlineStr">
+        <is>
+          <t>-35.64262411814861,174.50583853350574</t>
+        </is>
+      </c>
+      <c r="U245" t="inlineStr">
+        <is>
+          <t>-35.6432836209983,174.5054755413039</t>
+        </is>
+      </c>
+      <c r="V245" t="inlineStr">
+        <is>
+          <t>-35.643922291167655,174.50508378136522</t>
+        </is>
+      </c>
+      <c r="W245" t="inlineStr">
+        <is>
+          <t>-35.64457659307689,174.50469444664859</t>
+        </is>
+      </c>
+      <c r="X245" t="inlineStr">
+        <is>
+          <t>-35.64522606332529,174.50432760926483</t>
+        </is>
+      </c>
+      <c r="Y245" t="inlineStr">
+        <is>
+          <t>-35.645883104667206,174.5039804490204</t>
+        </is>
+      </c>
+      <c r="Z245" t="inlineStr">
+        <is>
+          <t>-35.64656874952941,174.50367586280828</t>
+        </is>
+      </c>
+      <c r="AA245" t="inlineStr">
+        <is>
+          <t>-35.647234863472406,174.50329004677707</t>
+        </is>
+      </c>
+      <c r="AB245" t="inlineStr">
+        <is>
+          <t>-35.64790330552687,174.50292701410305</t>
+        </is>
+      </c>
+      <c r="AC245" t="inlineStr">
+        <is>
+          <t>-35.648629392203375,174.5028648429137</t>
+        </is>
+      </c>
+      <c r="AD245" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>-35.63191328957067,174.51492132464972</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>-35.63255247881745,174.51448529389802</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>-35.63318942121774,174.51404370463393</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>-35.633935434481046,174.5138436721113</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>-35.63450166943545,174.5132613850098</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>-35.634984449967014,174.5125756597061</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>-35.63547681637533,174.51190858147385</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>-35.63596847304636,174.51123997654415</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>-35.63652673960243,174.5106589879825</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>-35.63708879524299,174.51008380450583</t>
+        </is>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>-35.63767810254948,174.5095451484624</t>
+        </is>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>-35.6382745957642,174.50902368723547</t>
+        </is>
+      </c>
+      <c r="N246" t="inlineStr">
+        <is>
+          <t>-35.63882468201918,174.5084891719502</t>
+        </is>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>-35.63940418551884,174.50797253726898</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>-35.640024431367415,174.50749412588436</t>
+        </is>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>-35.64069837646079,174.5071363837076</t>
+        </is>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>-35.64133178313191,174.5066825582684</t>
+        </is>
+      </c>
+      <c r="S246" t="inlineStr">
+        <is>
+          <t>-35.642006069982614,174.50631715821646</t>
+        </is>
+      </c>
+      <c r="T246" t="inlineStr">
+        <is>
+          <t>-35.642623522037155,174.5058372975029</t>
+        </is>
+      </c>
+      <c r="U246" t="inlineStr">
+        <is>
+          <t>-35.64329562593583,174.50550299199494</t>
+        </is>
+      </c>
+      <c r="V246" t="inlineStr">
+        <is>
+          <t>-35.64391031195453,174.50505248555433</t>
+        </is>
+      </c>
+      <c r="W246" t="inlineStr">
+        <is>
+          <t>-35.644582848109245,174.5047112893436</t>
+        </is>
+      </c>
+      <c r="X246" t="inlineStr">
+        <is>
+          <t>-35.64522634509613,174.50432848878833</t>
+        </is>
+      </c>
+      <c r="Y246" t="inlineStr">
+        <is>
+          <t>-35.645886535982505,174.50399336591477</t>
+        </is>
+      </c>
+      <c r="Z246" t="inlineStr">
+        <is>
+          <t>-35.646566995176705,174.5036691129455</t>
+        </is>
+      </c>
+      <c r="AA246" t="inlineStr">
+        <is>
+          <t>-35.64723783477885,174.50330147885475</t>
+        </is>
+      </c>
+      <c r="AB246" t="inlineStr">
+        <is>
+          <t>-35.64790489393743,174.5029346859772</t>
+        </is>
+      </c>
+      <c r="AC246" t="inlineStr">
+        <is>
+          <t>-35.64862791157687,174.50285532087258</t>
+        </is>
+      </c>
+      <c r="AD246" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0094/nzd0094.xlsx
+++ b/data/nzd0094/nzd0094.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD246"/>
+  <dimension ref="A1:AD248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21780,6 +21780,198 @@
         </is>
       </c>
     </row>
+    <row r="247">
+      <c r="A247" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>340.3</v>
+      </c>
+      <c r="C247" t="n">
+        <v>338.24</v>
+      </c>
+      <c r="D247" t="n">
+        <v>363.2114285714285</v>
+      </c>
+      <c r="E247" t="n">
+        <v>378.9514285714286</v>
+      </c>
+      <c r="F247" t="n">
+        <v>367.31</v>
+      </c>
+      <c r="G247" t="n">
+        <v>361.76</v>
+      </c>
+      <c r="H247" t="n">
+        <v>358.99</v>
+      </c>
+      <c r="I247" t="n">
+        <v>355.24</v>
+      </c>
+      <c r="J247" t="n">
+        <v>357.4214285714286</v>
+      </c>
+      <c r="K247" t="n">
+        <v>361.0314285714285</v>
+      </c>
+      <c r="L247" t="n">
+        <v>365.4714285714285</v>
+      </c>
+      <c r="M247" t="n">
+        <v>370.5014285714286</v>
+      </c>
+      <c r="N247" t="n">
+        <v>376.6314285714286</v>
+      </c>
+      <c r="O247" t="n">
+        <v>375.08</v>
+      </c>
+      <c r="P247" t="n">
+        <v>373.5014285714286</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>368.6814285714286</v>
+      </c>
+      <c r="R247" t="n">
+        <v>369.88</v>
+      </c>
+      <c r="S247" t="n">
+        <v>377.7714285714285</v>
+      </c>
+      <c r="T247" t="n">
+        <v>387.05</v>
+      </c>
+      <c r="U247" t="n">
+        <v>392.45</v>
+      </c>
+      <c r="V247" t="n">
+        <v>393.32</v>
+      </c>
+      <c r="W247" t="n">
+        <v>395.8133333333333</v>
+      </c>
+      <c r="X247" t="n">
+        <v>395.3433333333333</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>383.0100000000001</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>379.1014285714285</v>
+      </c>
+      <c r="AA247" t="n">
+        <v>373.0681818181818</v>
+      </c>
+      <c r="AB247" t="n">
+        <v>373.53</v>
+      </c>
+      <c r="AC247" t="n">
+        <v>376.5238461538461</v>
+      </c>
+      <c r="AD247" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>334.95</v>
+      </c>
+      <c r="C248" t="n">
+        <v>329.57</v>
+      </c>
+      <c r="D248" t="n">
+        <v>363.9114285714285</v>
+      </c>
+      <c r="E248" t="n">
+        <v>368.9714285714285</v>
+      </c>
+      <c r="F248" t="n">
+        <v>366.73</v>
+      </c>
+      <c r="G248" t="n">
+        <v>358.89</v>
+      </c>
+      <c r="H248" t="n">
+        <v>358.01</v>
+      </c>
+      <c r="I248" t="n">
+        <v>357.76</v>
+      </c>
+      <c r="J248" t="n">
+        <v>355.1114285714286</v>
+      </c>
+      <c r="K248" t="n">
+        <v>361.1914285714286</v>
+      </c>
+      <c r="L248" t="n">
+        <v>365.2114285714285</v>
+      </c>
+      <c r="M248" t="n">
+        <v>372.3314285714285</v>
+      </c>
+      <c r="N248" t="n">
+        <v>379.5014285714286</v>
+      </c>
+      <c r="O248" t="n">
+        <v>371.6</v>
+      </c>
+      <c r="P248" t="n">
+        <v>367.7214285714285</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>366.4414285714286</v>
+      </c>
+      <c r="R248" t="n">
+        <v>370.76</v>
+      </c>
+      <c r="S248" t="n">
+        <v>375.7514285714286</v>
+      </c>
+      <c r="T248" t="n">
+        <v>381.95</v>
+      </c>
+      <c r="U248" t="n">
+        <v>387.83</v>
+      </c>
+      <c r="V248" t="n">
+        <v>389.2</v>
+      </c>
+      <c r="W248" t="n">
+        <v>386.54</v>
+      </c>
+      <c r="X248" t="n">
+        <v>390.53</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>380.43</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>380.0814285714285</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>370.8163636363636</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>369.8</v>
+      </c>
+      <c r="AC248" t="n">
+        <v>375.1246153846154</v>
+      </c>
+      <c r="AD248" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21791,7 +21983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B248"/>
+  <dimension ref="A1:B250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24279,6 +24471,26 @@
       </c>
       <c r="B248" t="n">
         <v>0.47</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
@@ -24452,28 +24664,28 @@
         <v>0.0165</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7307939935116009</v>
+        <v>0.6377153026606295</v>
       </c>
       <c r="J2" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K2" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01621120622791805</v>
+        <v>0.01258055024107241</v>
       </c>
       <c r="M2" t="n">
-        <v>27.26626793162688</v>
+        <v>27.27120630533123</v>
       </c>
       <c r="N2" t="n">
-        <v>1487.490089730535</v>
+        <v>1479.923548892383</v>
       </c>
       <c r="O2" t="n">
-        <v>38.56799307366843</v>
+        <v>38.46977448455323</v>
       </c>
       <c r="P2" t="n">
-        <v>350.8882584828268</v>
+        <v>351.9907796671086</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24530,28 +24742,28 @@
         <v>0.0438</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1816538595610257</v>
+        <v>0.09047934956021132</v>
       </c>
       <c r="J3" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K3" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002006430113848712</v>
+        <v>0.0004990865542369161</v>
       </c>
       <c r="M3" t="n">
-        <v>20.61883450498057</v>
+        <v>20.77602172357465</v>
       </c>
       <c r="N3" t="n">
-        <v>771.033799062776</v>
+        <v>777.7700013983547</v>
       </c>
       <c r="O3" t="n">
-        <v>27.76749536891608</v>
+        <v>27.88852813251991</v>
       </c>
       <c r="P3" t="n">
-        <v>365.324706513702</v>
+        <v>366.3817748993433</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24608,28 +24820,28 @@
         <v>0.0513</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5966789811787419</v>
+        <v>0.5726660260700358</v>
       </c>
       <c r="J4" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K4" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03410573184083543</v>
+        <v>0.03210715550905097</v>
       </c>
       <c r="M4" t="n">
-        <v>18.23426195147679</v>
+        <v>18.12303587595648</v>
       </c>
       <c r="N4" t="n">
-        <v>459.4663263145914</v>
+        <v>454.9725760938643</v>
       </c>
       <c r="O4" t="n">
-        <v>21.43516564700612</v>
+        <v>21.33008617174024</v>
       </c>
       <c r="P4" t="n">
-        <v>358.0694782890865</v>
+        <v>358.351354818835</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24686,28 +24898,28 @@
         <v>0.0419</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7398612827116032</v>
+        <v>0.7507651642634945</v>
       </c>
       <c r="J5" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K5" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04592909489833819</v>
+        <v>0.04819838544910693</v>
       </c>
       <c r="M5" t="n">
-        <v>17.74967982812954</v>
+        <v>17.61858842966322</v>
       </c>
       <c r="N5" t="n">
-        <v>494.5223125357628</v>
+        <v>489.4179984416216</v>
       </c>
       <c r="O5" t="n">
-        <v>22.23785764267239</v>
+        <v>22.1227936400813</v>
       </c>
       <c r="P5" t="n">
-        <v>350.2421520098457</v>
+        <v>350.1127438208871</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24764,28 +24976,28 @@
         <v>0.0259</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2942164237917528</v>
+        <v>0.3008211294481666</v>
       </c>
       <c r="J6" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K6" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01094946559721033</v>
+        <v>0.01166747052700667</v>
       </c>
       <c r="M6" t="n">
-        <v>14.76895559966519</v>
+        <v>14.65871235064028</v>
       </c>
       <c r="N6" t="n">
-        <v>345.0887926010661</v>
+        <v>341.851160238505</v>
       </c>
       <c r="O6" t="n">
-        <v>18.57656568370661</v>
+        <v>18.48921740470659</v>
       </c>
       <c r="P6" t="n">
-        <v>356.2176924689749</v>
+        <v>356.1408148088981</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24842,28 +25054,28 @@
         <v>0.032</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1759842167236009</v>
+        <v>0.1794861160352057</v>
       </c>
       <c r="J7" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K7" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005215254548102122</v>
+        <v>0.005534774505609685</v>
       </c>
       <c r="M7" t="n">
-        <v>13.0401856499441</v>
+        <v>12.93043808050008</v>
       </c>
       <c r="N7" t="n">
-        <v>265.9292015963211</v>
+        <v>263.4311099388897</v>
       </c>
       <c r="O7" t="n">
-        <v>16.30733582153508</v>
+        <v>16.23056098657375</v>
       </c>
       <c r="P7" t="n">
-        <v>354.0717857228389</v>
+        <v>354.0318167119446</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24920,28 +25132,28 @@
         <v>0.032</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1117851719744226</v>
+        <v>0.1148471888323788</v>
       </c>
       <c r="J8" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K8" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002592719285873679</v>
+        <v>0.002791935676616397</v>
       </c>
       <c r="M8" t="n">
-        <v>11.87109753535788</v>
+        <v>11.76805790460684</v>
       </c>
       <c r="N8" t="n">
-        <v>215.4192387094035</v>
+        <v>213.3808551579841</v>
       </c>
       <c r="O8" t="n">
-        <v>14.67716725766261</v>
+        <v>14.60756157467714</v>
       </c>
       <c r="P8" t="n">
-        <v>354.1154648877209</v>
+        <v>354.0803023255383</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24998,28 +25210,28 @@
         <v>0.0357</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1960249961184994</v>
+        <v>0.1918802638629167</v>
       </c>
       <c r="J9" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K9" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009879991545741373</v>
+        <v>0.009653399745171876</v>
       </c>
       <c r="M9" t="n">
-        <v>10.24964887270096</v>
+        <v>10.17449409936381</v>
       </c>
       <c r="N9" t="n">
-        <v>172.7071844687143</v>
+        <v>171.154652056504</v>
       </c>
       <c r="O9" t="n">
-        <v>13.14181054758873</v>
+        <v>13.08260876341198</v>
       </c>
       <c r="P9" t="n">
-        <v>353.5176514131867</v>
+        <v>353.5652727849345</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25076,28 +25288,28 @@
         <v>0.0377</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2398316051998296</v>
+        <v>0.2309693588291875</v>
       </c>
       <c r="J10" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K10" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01746669593762051</v>
+        <v>0.01650322304315899</v>
       </c>
       <c r="M10" t="n">
-        <v>9.548893937885001</v>
+        <v>9.502146485976386</v>
       </c>
       <c r="N10" t="n">
-        <v>148.8366496134667</v>
+        <v>147.6677320978431</v>
       </c>
       <c r="O10" t="n">
-        <v>12.19986268830378</v>
+        <v>12.15186126064</v>
       </c>
       <c r="P10" t="n">
-        <v>354.6762192430323</v>
+        <v>354.7770488822337</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25154,28 +25366,28 @@
         <v>0.0404</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2947303696325388</v>
+        <v>0.2867691650462035</v>
       </c>
       <c r="J11" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K11" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02641075712961838</v>
+        <v>0.02549292521327717</v>
       </c>
       <c r="M11" t="n">
-        <v>9.353623433878466</v>
+        <v>9.300678790255896</v>
       </c>
       <c r="N11" t="n">
-        <v>146.0405213162722</v>
+        <v>144.8241563342425</v>
       </c>
       <c r="O11" t="n">
-        <v>12.08472264126373</v>
+        <v>12.03429085298517</v>
       </c>
       <c r="P11" t="n">
-        <v>357.5341671481167</v>
+        <v>357.6249543364095</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -25232,28 +25444,28 @@
         <v>0.0403</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2637751837737137</v>
+        <v>0.2537440563513368</v>
       </c>
       <c r="J12" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K12" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02467211848896189</v>
+        <v>0.02326790613138485</v>
       </c>
       <c r="M12" t="n">
-        <v>8.695135497307808</v>
+        <v>8.659835835505888</v>
       </c>
       <c r="N12" t="n">
-        <v>124.1606124794953</v>
+        <v>123.2345011954729</v>
       </c>
       <c r="O12" t="n">
-        <v>11.14273810512906</v>
+        <v>11.10110360259163</v>
       </c>
       <c r="P12" t="n">
-        <v>363.5986779220277</v>
+        <v>363.7139106430679</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -25310,28 +25522,28 @@
         <v>0.037</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2316596782493563</v>
+        <v>0.2180249758922632</v>
       </c>
       <c r="J13" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K13" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01932038273158987</v>
+        <v>0.01742418453486916</v>
       </c>
       <c r="M13" t="n">
-        <v>8.955906462263899</v>
+        <v>8.935427822384801</v>
       </c>
       <c r="N13" t="n">
-        <v>122.4738239573153</v>
+        <v>121.7626164530027</v>
       </c>
       <c r="O13" t="n">
-        <v>11.06678923434053</v>
+        <v>11.03460993660413</v>
       </c>
       <c r="P13" t="n">
-        <v>372.273747508482</v>
+        <v>372.4303149366808</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -25388,28 +25600,28 @@
         <v>0.0357</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09419046814214421</v>
+        <v>0.07969357167038002</v>
       </c>
       <c r="J14" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K14" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003523655319331187</v>
+        <v>0.002561045467568634</v>
       </c>
       <c r="M14" t="n">
-        <v>8.472776596600061</v>
+        <v>8.464775252664969</v>
       </c>
       <c r="N14" t="n">
-        <v>113.0825008924276</v>
+        <v>112.571292476149</v>
       </c>
       <c r="O14" t="n">
-        <v>10.63402562026383</v>
+        <v>10.60996194508486</v>
       </c>
       <c r="P14" t="n">
-        <v>383.1551922328034</v>
+        <v>383.3220906524889</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -25466,28 +25678,28 @@
         <v>0.0408</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07586745052400735</v>
+        <v>0.06270053156209987</v>
       </c>
       <c r="J15" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K15" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002154826869508408</v>
+        <v>0.001496032936145419</v>
       </c>
       <c r="M15" t="n">
-        <v>8.680652210231134</v>
+        <v>8.658092898980389</v>
       </c>
       <c r="N15" t="n">
-        <v>118.8689042344764</v>
+        <v>118.1761776673613</v>
       </c>
       <c r="O15" t="n">
-        <v>10.90270169428094</v>
+        <v>10.87088670106359</v>
       </c>
       <c r="P15" t="n">
-        <v>377.9850781044406</v>
+        <v>378.1379601467572</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -25544,28 +25756,28 @@
         <v>0.0364</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001141155113573835</v>
+        <v>-0.01393320024443035</v>
       </c>
       <c r="J16" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K16" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L16" t="n">
-        <v>4.346616763184485e-07</v>
+        <v>6.570485775214685e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>9.236168721028974</v>
+        <v>9.221771510634024</v>
       </c>
       <c r="N16" t="n">
-        <v>132.7184675195854</v>
+        <v>132.0955692042044</v>
       </c>
       <c r="O16" t="n">
-        <v>11.52035014743846</v>
+        <v>11.49328365630138</v>
       </c>
       <c r="P16" t="n">
-        <v>378.2863391072524</v>
+        <v>378.4630613545275</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -25622,28 +25834,28 @@
         <v>0.0407</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.008368854455052661</v>
+        <v>-0.02558705950025505</v>
       </c>
       <c r="J17" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K17" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L17" t="n">
-        <v>2.44028678135777e-05</v>
+        <v>0.0002309511807351283</v>
       </c>
       <c r="M17" t="n">
-        <v>9.104846851679275</v>
+        <v>9.100309147088174</v>
       </c>
       <c r="N17" t="n">
-        <v>130.5766085139318</v>
+        <v>130.1033861356974</v>
       </c>
       <c r="O17" t="n">
-        <v>11.42701223040966</v>
+        <v>11.40628713191534</v>
       </c>
       <c r="P17" t="n">
-        <v>376.7722539454476</v>
+        <v>376.9715130861273</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -25700,28 +25912,28 @@
         <v>0.041</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03884497827569864</v>
+        <v>0.02528822794204205</v>
       </c>
       <c r="J18" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K18" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L18" t="n">
-        <v>0.000553317562860034</v>
+        <v>0.0002380580907156427</v>
       </c>
       <c r="M18" t="n">
-        <v>8.922643515487055</v>
+        <v>8.913915889720517</v>
       </c>
       <c r="N18" t="n">
-        <v>125.5757588696561</v>
+        <v>124.8684964651404</v>
       </c>
       <c r="O18" t="n">
-        <v>11.20605902490506</v>
+        <v>11.17445732307124</v>
       </c>
       <c r="P18" t="n">
-        <v>376.4389866913614</v>
+        <v>376.5942860196458</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -25778,28 +25990,28 @@
         <v>0.0406</v>
       </c>
       <c r="I19" t="n">
-        <v>0.07578835958260909</v>
+        <v>0.06492801476771731</v>
       </c>
       <c r="J19" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K19" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001740787843091396</v>
+        <v>0.001300020031945737</v>
       </c>
       <c r="M19" t="n">
-        <v>9.816987712433978</v>
+        <v>9.780741290373129</v>
       </c>
       <c r="N19" t="n">
-        <v>149.8169145956137</v>
+        <v>148.7355522549547</v>
       </c>
       <c r="O19" t="n">
-        <v>12.23997200142278</v>
+        <v>12.19571860346715</v>
       </c>
       <c r="P19" t="n">
-        <v>380.4417638184865</v>
+        <v>380.5661605860494</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -25856,28 +26068,28 @@
         <v>0.0415</v>
       </c>
       <c r="I20" t="n">
-        <v>0.07352469134290142</v>
+        <v>0.06913328775415158</v>
       </c>
       <c r="J20" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K20" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L20" t="n">
-        <v>0.002053646869879522</v>
+        <v>0.001848668072505832</v>
       </c>
       <c r="M20" t="n">
-        <v>8.394554704540237</v>
+        <v>8.338694773777091</v>
       </c>
       <c r="N20" t="n">
-        <v>116.8494257157607</v>
+        <v>115.8965731165502</v>
       </c>
       <c r="O20" t="n">
-        <v>10.80969128679264</v>
+        <v>10.7655270710054</v>
       </c>
       <c r="P20" t="n">
-        <v>384.8782521090127</v>
+        <v>384.9292362081406</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -25934,28 +26146,28 @@
         <v>0.0411</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1755351046459842</v>
+        <v>0.1694499972579195</v>
       </c>
       <c r="J21" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K21" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01166870949962684</v>
+        <v>0.01106636419620355</v>
       </c>
       <c r="M21" t="n">
-        <v>8.359782667184813</v>
+        <v>8.3136029334502</v>
       </c>
       <c r="N21" t="n">
-        <v>116.4982729705004</v>
+        <v>115.6055542088196</v>
       </c>
       <c r="O21" t="n">
-        <v>10.79343656906828</v>
+        <v>10.75200233485929</v>
       </c>
       <c r="P21" t="n">
-        <v>388.8506285476867</v>
+        <v>388.9212418927056</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -26012,28 +26224,28 @@
         <v>0.0445</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1110838039488362</v>
+        <v>0.1117985783197896</v>
       </c>
       <c r="J22" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K22" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L22" t="n">
-        <v>0.005344480579354549</v>
+        <v>0.005509791718121493</v>
       </c>
       <c r="M22" t="n">
-        <v>8.12586677127214</v>
+        <v>8.072016316163294</v>
       </c>
       <c r="N22" t="n">
-        <v>106.0352726374315</v>
+        <v>105.1318165830864</v>
       </c>
       <c r="O22" t="n">
-        <v>10.29734298920996</v>
+        <v>10.25338073920433</v>
       </c>
       <c r="P22" t="n">
-        <v>387.9980682048094</v>
+        <v>387.9899651970071</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -26090,28 +26302,28 @@
         <v>0.047</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1281289850157031</v>
+        <v>0.1307209403068665</v>
       </c>
       <c r="J23" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K23" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L23" t="n">
-        <v>0.007396383556965813</v>
+        <v>0.007821981002056444</v>
       </c>
       <c r="M23" t="n">
-        <v>7.879661906680946</v>
+        <v>7.849576733073366</v>
       </c>
       <c r="N23" t="n">
-        <v>102.0664044370705</v>
+        <v>101.3511173733265</v>
       </c>
       <c r="O23" t="n">
-        <v>10.10279191298477</v>
+        <v>10.06732920755681</v>
       </c>
       <c r="P23" t="n">
-        <v>386.476216951421</v>
+        <v>386.4468117092883</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -26168,28 +26380,28 @@
         <v>0.0484</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1586199231380858</v>
+        <v>0.1654348846856408</v>
       </c>
       <c r="J24" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K24" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01046741326146605</v>
+        <v>0.01157569926315638</v>
       </c>
       <c r="M24" t="n">
-        <v>8.246017659318779</v>
+        <v>8.197233960359677</v>
       </c>
       <c r="N24" t="n">
-        <v>109.0333224991056</v>
+        <v>108.1888135299126</v>
       </c>
       <c r="O24" t="n">
-        <v>10.44190224523796</v>
+        <v>10.4013851736157</v>
       </c>
       <c r="P24" t="n">
-        <v>385.3178607652673</v>
+        <v>385.2402878797162</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -26246,28 +26458,28 @@
         <v>0.0518</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1922894148054051</v>
+        <v>0.190845585295298</v>
       </c>
       <c r="J25" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K25" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01975695733920357</v>
+        <v>0.01983988513711565</v>
       </c>
       <c r="M25" t="n">
-        <v>7.074329337760801</v>
+        <v>7.02105082968675</v>
       </c>
       <c r="N25" t="n">
-        <v>84.26475405456237</v>
+        <v>83.49408111527246</v>
       </c>
       <c r="O25" t="n">
-        <v>9.179583544723714</v>
+        <v>9.13750956854615</v>
       </c>
       <c r="P25" t="n">
-        <v>377.4787737556263</v>
+        <v>377.4951737205587</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -26324,28 +26536,28 @@
         <v>0.0363</v>
       </c>
       <c r="I26" t="n">
-        <v>0.05557015973163566</v>
+        <v>0.04065168283697534</v>
       </c>
       <c r="J26" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K26" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001209651789244925</v>
+        <v>0.0006583292332771329</v>
       </c>
       <c r="M26" t="n">
-        <v>8.023134478978609</v>
+        <v>8.020366839972239</v>
       </c>
       <c r="N26" t="n">
-        <v>114.1614597309982</v>
+        <v>113.5067137158602</v>
       </c>
       <c r="O26" t="n">
-        <v>10.68463662138298</v>
+        <v>10.65395296196957</v>
       </c>
       <c r="P26" t="n">
-        <v>385.2224009078154</v>
+        <v>385.394966286155</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -26402,28 +26614,28 @@
         <v>0.0617</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1212375342041149</v>
+        <v>0.1229065488365036</v>
       </c>
       <c r="J27" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K27" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L27" t="n">
-        <v>0.00918279918924636</v>
+        <v>0.009611893533425397</v>
       </c>
       <c r="M27" t="n">
-        <v>6.443410834134207</v>
+        <v>6.392491372600804</v>
       </c>
       <c r="N27" t="n">
-        <v>72.97414967140986</v>
+        <v>72.310785444562</v>
       </c>
       <c r="O27" t="n">
-        <v>8.542490835313192</v>
+        <v>8.503574862642299</v>
       </c>
       <c r="P27" t="n">
-        <v>367.9447845332012</v>
+        <v>367.9257671463579</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -26480,28 +26692,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>0.09908727293155677</v>
+        <v>0.1081444377523763</v>
       </c>
       <c r="J28" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K28" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L28" t="n">
-        <v>0.005774925058092295</v>
+        <v>0.006990471552045907</v>
       </c>
       <c r="M28" t="n">
-        <v>6.416882405463311</v>
+        <v>6.394312749091341</v>
       </c>
       <c r="N28" t="n">
-        <v>77.36211464266266</v>
+        <v>76.82402313451055</v>
       </c>
       <c r="O28" t="n">
-        <v>8.795573582357358</v>
+        <v>8.764931439236165</v>
       </c>
       <c r="P28" t="n">
-        <v>364.6787981261996</v>
+        <v>364.5754867042459</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -26558,28 +26770,28 @@
         <v>0.0766</v>
       </c>
       <c r="I29" t="n">
-        <v>0.005924638884844878</v>
+        <v>0.0122715371660304</v>
       </c>
       <c r="J29" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K29" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L29" t="n">
-        <v>2.416848409392269e-05</v>
+        <v>0.0001055095973063747</v>
       </c>
       <c r="M29" t="n">
-        <v>6.141956729487911</v>
+        <v>6.112054707116724</v>
       </c>
       <c r="N29" t="n">
-        <v>65.49234801272185</v>
+        <v>64.95354800249676</v>
       </c>
       <c r="O29" t="n">
-        <v>8.092734272958792</v>
+        <v>8.059376402830232</v>
       </c>
       <c r="P29" t="n">
-        <v>372.4989940747477</v>
+        <v>372.4250939064858</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -26617,7 +26829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD246"/>
+  <dimension ref="A1:AD248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59361,6 +59573,310 @@
         </is>
       </c>
     </row>
+    <row r="247">
+      <c r="A247" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>-35.63184085593969,174.5147417094077</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>-35.63248378425427,174.51431495031153</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>-35.633234625844,174.51415580023274</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>-35.63396299343102,174.51389682997637</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>-35.63447377751014,174.51322188098763</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>-35.63496895155091,174.51255536604606</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>-35.63547966973963,174.51191231766663</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>-35.63598450088361,174.5112611251802</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>-35.636529623859445,174.5106628325527</t>
+        </is>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>-35.63708448766641,174.51007804857974</t>
+        </is>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>-35.63764437279433,174.509500077624</t>
+        </is>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>-35.6382063864786,174.50892810037845</t>
+        </is>
+      </c>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>-35.63878187548322,174.50841069598783</t>
+        </is>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>-35.63940582181088,174.50797634903748</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>-35.64004172941095,174.50753442198047</t>
+        </is>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>-35.64066475238737,174.50706052048028</t>
+        </is>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>-35.641304356508996,174.50662417301962</t>
+        </is>
+      </c>
+      <c r="S247" t="inlineStr">
+        <is>
+          <t>-35.64196582281325,174.50623370819673</t>
+        </is>
+      </c>
+      <c r="T247" t="inlineStr">
+        <is>
+          <t>-35.642632922254684,174.505856788319</t>
+        </is>
+      </c>
+      <c r="U247" t="inlineStr">
+        <is>
+          <t>-35.643272169473825,174.50544935607772</t>
+        </is>
+      </c>
+      <c r="V247" t="inlineStr">
+        <is>
+          <t>-35.64391570834232,174.5050665836661</t>
+        </is>
+      </c>
+      <c r="W247" t="inlineStr">
+        <is>
+          <t>-35.64458332926547,174.50471258493562</t>
+        </is>
+      </c>
+      <c r="X247" t="inlineStr">
+        <is>
+          <t>-35.64522818575473,174.50433423424724</t>
+        </is>
+      </c>
+      <c r="Y247" t="inlineStr">
+        <is>
+          <t>-35.64586686866824,174.50391933007128</t>
+        </is>
+      </c>
+      <c r="Z247" t="inlineStr">
+        <is>
+          <t>-35.64654829508137,174.50359716453693</t>
+        </is>
+      </c>
+      <c r="AA247" t="inlineStr">
+        <is>
+          <t>-35.647225041991305,174.50325225874366</t>
+        </is>
+      </c>
+      <c r="AB247" t="inlineStr">
+        <is>
+          <t>-35.647913685596194,174.50297714891383</t>
+        </is>
+      </c>
+      <c r="AC247" t="inlineStr">
+        <is>
+          <t>-35.64862467781325,174.50283452426856</t>
+        </is>
+      </c>
+      <c r="AD247" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>-35.63181949708149,174.5146887455763</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>-35.63244917072353,174.51422911863557</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>-35.63323742047417,174.51416273019433</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>-35.6339147652525,174.51380380373615</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>-35.63447035735768,174.5132170369445</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>-35.63495127719377,174.51253222321944</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>-35.63547363456608,174.511904415216</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>-35.63599995629434,174.51128151851583</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>-35.6365155336963,174.51064405107508</t>
+        </is>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>-35.63708546231003,174.51007935093062</t>
+        </is>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>-35.63764278899218,174.50949796129558</t>
+        </is>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>-35.638217243354624,174.50894331492574</t>
+        </is>
+      </c>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>-35.63879624927003,174.50843704700793</t>
+        </is>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>-35.63939122104672,174.50794233633934</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>-35.640017478580916,174.50747792926012</t>
+        </is>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>-35.640655117409835,174.50703878190618</t>
+        </is>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>-35.64130831313838,174.5066325958072</t>
+        </is>
+      </c>
+      <c r="S248" t="inlineStr">
+        <is>
+          <t>-35.64195656019121,174.50621450275136</t>
+        </is>
+      </c>
+      <c r="T248" t="inlineStr">
+        <is>
+          <t>-35.64260953634161,174.50580829897996</t>
+        </is>
+      </c>
+      <c r="U248" t="inlineStr">
+        <is>
+          <t>-35.64325250178607,174.50540438369893</t>
+        </is>
+      </c>
+      <c r="V248" t="inlineStr">
+        <is>
+          <t>-35.64389994016898,174.50502538918866</t>
+        </is>
+      </c>
+      <c r="W248" t="inlineStr">
+        <is>
+          <t>-35.64454871086734,174.50461936936165</t>
+        </is>
+      </c>
+      <c r="X248" t="inlineStr">
+        <is>
+          <t>-35.64521233339344,174.50428475249018</t>
+        </is>
+      </c>
+      <c r="Y248" t="inlineStr">
+        <is>
+          <t>-35.64585967125651,174.50389223611174</t>
+        </is>
+      </c>
+      <c r="Z248" t="inlineStr">
+        <is>
+          <t>-35.6465509754571,174.5036074772404</t>
+        </is>
+      </c>
+      <c r="AA248" t="inlineStr">
+        <is>
+          <t>-35.64721888304625,174.50322856230292</t>
+        </is>
+      </c>
+      <c r="AB248" t="inlineStr">
+        <is>
+          <t>-35.64790541848219,174.5029372194799</t>
+        </is>
+      </c>
+      <c r="AC248" t="inlineStr">
+        <is>
+          <t>-35.648622317371135,174.50281934408383</t>
+        </is>
+      </c>
+      <c r="AD248" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0094/nzd0094.xlsx
+++ b/data/nzd0094/nzd0094.xlsx
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0116</v>
+        <v>0.01</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0165</v>
+        <v>0.0102</v>
       </c>
       <c r="I2" t="n">
         <v>0.6376986317670182</v>
@@ -24733,13 +24733,13 @@
         <v>0.03706539645362392</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0246</v>
+        <v>0.01</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0438</v>
+        <v>0.0104</v>
       </c>
       <c r="I3" t="n">
         <v>0.09049068767780444</v>
@@ -24811,13 +24811,13 @@
         <v>0.07413079290724783</v>
       </c>
       <c r="F4" t="n">
-        <v>0.035</v>
+        <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0291</v>
+        <v>0.01</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0513</v>
+        <v>0.0106</v>
       </c>
       <c r="I4" t="n">
         <v>0.5726678528468507</v>
@@ -24889,13 +24889,13 @@
         <v>0.1111961893608717</v>
       </c>
       <c r="F5" t="n">
-        <v>0.035</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0292</v>
+        <v>0.0197</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0419</v>
+        <v>0.0239</v>
       </c>
       <c r="I5" t="n">
         <v>0.7507522912671442</v>
@@ -24970,10 +24970,10 @@
         <v>0.025</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0227</v>
+        <v>0.0246</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0259</v>
+        <v>0.0307</v>
       </c>
       <c r="I6" t="n">
         <v>0.3008211294481667</v>
@@ -25048,10 +25048,10 @@
         <v>0.03</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0279</v>
+        <v>0.0292</v>
       </c>
       <c r="H7" t="n">
-        <v>0.032</v>
+        <v>0.0358</v>
       </c>
       <c r="I7" t="n">
         <v>0.1795238298145241</v>
@@ -25123,13 +25123,13 @@
         <v>0.2220799759828653</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0294</v>
+        <v>0.0317</v>
       </c>
       <c r="H8" t="n">
-        <v>0.032</v>
+        <v>0.0369</v>
       </c>
       <c r="I8" t="n">
         <v>0.114894362747797</v>
@@ -25201,13 +25201,13 @@
         <v>0.2591453724367399</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0297</v>
+        <v>0.0364</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0357</v>
+        <v>0.0422</v>
       </c>
       <c r="I9" t="n">
         <v>0.1919266619498254</v>
@@ -25279,13 +25279,13 @@
         <v>0.2962104207007901</v>
       </c>
       <c r="F10" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0342</v>
+        <v>0.0386</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0377</v>
+        <v>0.0449</v>
       </c>
       <c r="I10" t="n">
         <v>0.2309839367440637</v>
@@ -25357,13 +25357,13 @@
         <v>0.3332758171553624</v>
       </c>
       <c r="F11" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0345</v>
+        <v>0.0391</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0404</v>
+        <v>0.0478</v>
       </c>
       <c r="I11" t="n">
         <v>0.2867911470053516</v>
@@ -25435,13 +25435,13 @@
         <v>0.3703412136089907</v>
       </c>
       <c r="F12" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0347</v>
+        <v>0.043</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0403</v>
+        <v>0.0535</v>
       </c>
       <c r="I12" t="n">
         <v>0.2537671930501012</v>
@@ -25513,13 +25513,13 @@
         <v>0.4074066100626191</v>
       </c>
       <c r="F13" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0346</v>
+        <v>0.0356</v>
       </c>
       <c r="H13" t="n">
-        <v>0.037</v>
+        <v>0.0467</v>
       </c>
       <c r="I13" t="n">
         <v>0.2180406129215155</v>
@@ -25591,13 +25591,13 @@
         <v>0.4442866521319039</v>
       </c>
       <c r="F14" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0343</v>
+        <v>0.0423</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0357</v>
+        <v>0.0507</v>
       </c>
       <c r="I14" t="n">
         <v>0.07971254944671943</v>
@@ -25669,13 +25669,13 @@
         <v>0.4813520485859595</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0387</v>
+        <v>0.044</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0408</v>
+        <v>0.0555</v>
       </c>
       <c r="I15" t="n">
         <v>0.06270053156209987</v>
@@ -25747,13 +25747,13 @@
         <v>0.5184174450396634</v>
       </c>
       <c r="F16" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0346</v>
+        <v>0.0403</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0364</v>
+        <v>0.0486</v>
       </c>
       <c r="I16" t="n">
         <v>-0.01391358776504943</v>
@@ -25825,13 +25825,13 @@
         <v>0.5554828414940227</v>
       </c>
       <c r="F17" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0345</v>
+        <v>0.043</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0407</v>
+        <v>0.0533</v>
       </c>
       <c r="I17" t="n">
         <v>-0.02558413274786134</v>
@@ -25903,13 +25903,13 @@
         <v>0.592536922941701</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0349</v>
+        <v>0.0462</v>
       </c>
       <c r="H18" t="n">
-        <v>0.041</v>
+        <v>0.0578</v>
       </c>
       <c r="I18" t="n">
         <v>0.02528822794204205</v>
@@ -25981,13 +25981,13 @@
         <v>0.629602319395663</v>
       </c>
       <c r="F19" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0346</v>
+        <v>0.0427</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0406</v>
+        <v>0.0529</v>
       </c>
       <c r="I19" t="n">
         <v>0.06494311235487922</v>
@@ -26059,13 +26059,13 @@
         <v>0.66666771584891</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0379</v>
+        <v>0.0404</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0415</v>
+        <v>0.049</v>
       </c>
       <c r="I20" t="n">
         <v>0.06913328775415158</v>
@@ -26137,13 +26137,13 @@
         <v>0.7037331123025768</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0365</v>
+        <v>0.0415</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0411</v>
+        <v>0.0505</v>
       </c>
       <c r="I21" t="n">
         <v>0.1694499972579195</v>
@@ -26215,13 +26215,13 @@
         <v>0.7407627512915811</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0393</v>
+        <v>0.0462</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0445</v>
+        <v>0.057</v>
       </c>
       <c r="I22" t="n">
         <v>0.1117985783197896</v>
@@ -26293,13 +26293,13 @@
         <v>0.7778281477454542</v>
       </c>
       <c r="F23" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04</v>
+        <v>0.0482</v>
       </c>
       <c r="H23" t="n">
-        <v>0.047</v>
+        <v>0.0611</v>
       </c>
       <c r="I23" t="n">
         <v>0.1307077947105819</v>
@@ -26371,13 +26371,13 @@
         <v>0.8148935441996401</v>
       </c>
       <c r="F24" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0437</v>
+        <v>0.0495</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0484</v>
+        <v>0.064</v>
       </c>
       <c r="I24" t="n">
         <v>0.1654053041508133</v>
@@ -26449,13 +26449,13 @@
         <v>0.8519338459553452</v>
       </c>
       <c r="F25" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0441</v>
+        <v>0.0571</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0518</v>
+        <v>0.0764</v>
       </c>
       <c r="I25" t="n">
         <v>0.1908455852952977</v>
@@ -26527,13 +26527,13 @@
         <v>0.8889992424089463</v>
       </c>
       <c r="F26" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0313</v>
+        <v>0.0379</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0363</v>
+        <v>0.0497</v>
       </c>
       <c r="I26" t="n">
         <v>0.04067000644269312</v>
@@ -26605,13 +26605,13 @@
         <v>0.9260646388625475</v>
       </c>
       <c r="F27" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0532</v>
+        <v>0.0577</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0617</v>
+        <v>0.0752</v>
       </c>
       <c r="I27" t="n">
         <v>0.1229227759994172</v>
@@ -26683,13 +26683,13 @@
         <v>0.9631300353161486</v>
       </c>
       <c r="F28" t="n">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="G28" t="n">
-        <v>0.055</v>
+        <v>0.0587</v>
       </c>
       <c r="H28" t="n">
-        <v>0.06510000000000001</v>
+        <v>0.0781</v>
       </c>
       <c r="I28" t="n">
         <v>0.1080971139470703</v>
@@ -26761,13 +26761,13 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.065</v>
+        <v>0.115</v>
       </c>
       <c r="G29" t="n">
-        <v>0.06</v>
+        <v>0.0837</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0766</v>
+        <v>0.1743</v>
       </c>
       <c r="I29" t="n">
         <v>0.01230375091865856</v>
